--- a/project/app/planilhas_preenchidas/planilhas/Modelo_Fub.xlsx
+++ b/project/app/planilhas_preenchidas/planilhas/Modelo_Fub.xlsx
@@ -281,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -568,6 +568,20 @@
       <bottom style="medium"/>
     </border>
     <border>
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
       <right style="medium"/>
       <bottom/>
     </border>
@@ -836,7 +850,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -1341,30 +1355,35 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="9" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="25">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="10" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="25">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="9" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="25">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="25">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="17" fillId="10" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="26">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1388,13 +1407,14 @@
     <xf numFmtId="166" fontId="17" fillId="10" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="26">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="10" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="17" fillId="10" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="26">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1409,9 +1429,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1421,7 +1438,7 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="27">
@@ -1595,22 +1612,22 @@
     <xf numFmtId="166" fontId="17" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="52">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="51">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="16" fillId="8" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="52">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="51">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="16" fillId="8" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="52">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="17" fillId="9" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="52">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="52">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2887,7 +2904,7 @@
   </cols>
   <sheetData>
     <row r="2" ht="21.75" customHeight="1" s="74">
-      <c r="B2" s="280" t="inlineStr">
+      <c r="B2" s="281" t="inlineStr">
         <is>
           <t>PRESTAÇÃO DE CONTAS PARCIAL</t>
         </is>
@@ -2895,19 +2912,19 @@
     </row>
     <row r="3" ht="8.25" customHeight="1" s="74"/>
     <row r="4">
-      <c r="B4" s="281" t="inlineStr">
+      <c r="B4" s="282" t="inlineStr">
         <is>
           <t>DADOS DO ACORDO</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="282" t="inlineStr">
+      <c r="B6" s="283" t="inlineStr">
         <is>
           <t>AGENTE FINANCIADOR</t>
         </is>
       </c>
-      <c r="E6" s="283" t="inlineStr">
+      <c r="E6" s="284" t="inlineStr">
         <is>
           <t>FUNDAÇÃO UNIVERSIDADE DE BRASÍLIA -UnB</t>
         </is>
@@ -2915,14 +2932,14 @@
     </row>
     <row r="7"/>
     <row r="9">
-      <c r="B9" s="284" t="inlineStr">
+      <c r="B9" s="285" t="inlineStr">
         <is>
           <t>PROJETO</t>
         </is>
       </c>
-      <c r="E9" s="285" t="inlineStr">
-        <is>
-          <t>FUB/FD - Mestrado Profissional em Direito, Regulação e Políticas Públicas</t>
+      <c r="E9" s="286" t="inlineStr">
+        <is>
+          <t>FUB/UnB Idiomas - "Apoio a Gestão Administrativa e Financeira do Programa Permanente de Extensão UnB Idiomas."</t>
         </is>
       </c>
     </row>
@@ -2931,36 +2948,36 @@
     <row r="12"/>
     <row r="13" ht="9.75" customHeight="1" s="74"/>
     <row r="14">
-      <c r="B14" s="284" t="inlineStr">
+      <c r="B14" s="285" t="inlineStr">
         <is>
           <t>COORDENADOR</t>
         </is>
       </c>
-      <c r="E14" s="285" t="inlineStr">
-        <is>
-          <t>DEBORA BONAT</t>
+      <c r="E14" s="286" t="inlineStr">
+        <is>
+          <t>EDNA GISELA PIZARRO</t>
         </is>
       </c>
     </row>
     <row r="15"/>
     <row r="16" ht="6.75" customHeight="1" s="74"/>
     <row r="17">
-      <c r="B17" s="284" t="inlineStr">
+      <c r="B17" s="285" t="inlineStr">
         <is>
           <t>PROCESSO</t>
         </is>
       </c>
-      <c r="E17" s="285" t="inlineStr">
-        <is>
-          <t>23106.136764/2019-78 (FUB/FINATEC)</t>
-        </is>
-      </c>
-      <c r="H17" s="284" t="inlineStr">
+      <c r="E17" s="286" t="inlineStr">
+        <is>
+          <t>23106.075145/2017-38</t>
+        </is>
+      </c>
+      <c r="H17" s="285" t="inlineStr">
         <is>
           <t>BANCO</t>
         </is>
       </c>
-      <c r="K17" s="285" t="inlineStr">
+      <c r="K17" s="286" t="inlineStr">
         <is>
           <t>Banco do Brasil S.A.</t>
         </is>
@@ -2968,43 +2985,43 @@
     </row>
     <row r="18"/>
     <row r="19">
-      <c r="B19" s="284" t="inlineStr">
+      <c r="B19" s="285" t="inlineStr">
         <is>
           <t>CENTRO DE CUSTO</t>
         </is>
       </c>
-      <c r="E19" s="286" t="n">
-        <v>6858</v>
-      </c>
-      <c r="H19" s="284" t="inlineStr">
+      <c r="E19" s="287" t="n">
+        <v>6411</v>
+      </c>
+      <c r="H19" s="285" t="inlineStr">
         <is>
           <t>CONTA CORRENTE</t>
         </is>
       </c>
-      <c r="K19" s="285" t="inlineStr">
-        <is>
-          <t>7494-2</t>
+      <c r="K19" s="286" t="inlineStr">
+        <is>
+          <t>6813-6</t>
         </is>
       </c>
     </row>
     <row r="20"/>
     <row r="21">
-      <c r="B21" s="287" t="inlineStr">
+      <c r="B21" s="288" t="inlineStr">
         <is>
           <t>PERIODO</t>
         </is>
       </c>
-      <c r="E21" s="285" t="inlineStr">
-        <is>
-          <t>2023-11-30 a 2023-12-06</t>
-        </is>
-      </c>
-      <c r="H21" s="284" t="inlineStr">
+      <c r="E21" s="286" t="inlineStr">
+        <is>
+          <t>2023-10-07 a 2023-12-06</t>
+        </is>
+      </c>
+      <c r="H21" s="285" t="inlineStr">
         <is>
           <t>AGÊNCIA</t>
         </is>
       </c>
-      <c r="K21" s="285" t="inlineStr">
+      <c r="K21" s="286" t="inlineStr">
         <is>
           <t>3382-0</t>
         </is>
@@ -3012,7 +3029,7 @@
     </row>
     <row r="22"/>
     <row r="23">
-      <c r="B23" s="281" t="inlineStr">
+      <c r="B23" s="282" t="inlineStr">
         <is>
           <t>ASSINATURAS - RESPONSAVEIS PELA PRESTAÇÃO DE CONTAS</t>
         </is>
@@ -3025,12 +3042,12 @@
       <c r="R25" s="63" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="284" t="inlineStr">
+      <c r="B26" s="285" t="inlineStr">
         <is>
           <t>ANALISTA</t>
         </is>
       </c>
-      <c r="E26" s="286" t="inlineStr">
+      <c r="E26" s="287" t="inlineStr">
         <is>
           <t>CARMEN CRISTINE MAGALHAES PEREIRA</t>
         </is>
@@ -3039,22 +3056,22 @@
     <row r="27"/>
     <row r="28"/>
     <row r="30">
-      <c r="B30" s="284" t="inlineStr">
+      <c r="B30" s="285" t="inlineStr">
         <is>
           <t>ASSISTENTE</t>
         </is>
       </c>
-      <c r="E30" s="288" t="n"/>
+      <c r="E30" s="289" t="n"/>
     </row>
     <row r="31"/>
     <row r="32"/>
     <row r="34">
-      <c r="B34" s="289" t="inlineStr">
+      <c r="B34" s="290" t="inlineStr">
         <is>
           <t>COORDENADORA DE GESTÃO DE PROJETOS</t>
         </is>
       </c>
-      <c r="E34" s="288" t="n"/>
+      <c r="E34" s="289" t="n"/>
     </row>
     <row r="35"/>
     <row r="36"/>
@@ -3169,52 +3186,52 @@
       <c r="J8" s="115" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="215" t="inlineStr">
+      <c r="A9" s="216" t="inlineStr">
         <is>
           <t>ITEM</t>
         </is>
       </c>
-      <c r="B9" s="215" t="inlineStr">
+      <c r="B9" s="216" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="C9" s="215" t="inlineStr">
+      <c r="C9" s="216" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D9" s="215" t="inlineStr">
+      <c r="D9" s="216" t="inlineStr">
         <is>
           <t>ESPECIFICAÇÃO DA DESPESA</t>
         </is>
       </c>
-      <c r="E9" s="215" t="inlineStr">
+      <c r="E9" s="216" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="F9" s="215" t="inlineStr">
+      <c r="F9" s="216" t="inlineStr">
         <is>
           <t>Nº DO RECIBO OU EQUIVALENTE</t>
         </is>
       </c>
-      <c r="G9" s="215" t="inlineStr">
+      <c r="G9" s="216" t="inlineStr">
         <is>
           <t>DATA DE EMISSÃO</t>
         </is>
       </c>
-      <c r="H9" s="215" t="inlineStr">
+      <c r="H9" s="216" t="inlineStr">
         <is>
           <t>CHEQUE / ORDEM BANCÁRIA</t>
         </is>
       </c>
-      <c r="I9" s="215" t="inlineStr">
+      <c r="I9" s="216" t="inlineStr">
         <is>
           <t>DATA DE PGTO</t>
         </is>
       </c>
-      <c r="J9" s="216" t="inlineStr">
+      <c r="J9" s="217" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -3230,7 +3247,7 @@
       <c r="G10" s="118" t="n"/>
       <c r="H10" s="118" t="n"/>
       <c r="I10" s="118" t="n"/>
-      <c r="J10" s="217" t="n"/>
+      <c r="J10" s="218" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1" s="74">
       <c r="A11" s="120" t="n"/>
@@ -3242,7 +3259,7 @@
       <c r="G11" s="120" t="n"/>
       <c r="H11" s="120" t="n"/>
       <c r="I11" s="120" t="n"/>
-      <c r="J11" s="218" t="n"/>
+      <c r="J11" s="219" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1" s="74">
       <c r="A12" s="118" t="n"/>
@@ -3254,7 +3271,7 @@
       <c r="G12" s="118" t="n"/>
       <c r="H12" s="118" t="n"/>
       <c r="I12" s="118" t="n"/>
-      <c r="J12" s="217" t="n"/>
+      <c r="J12" s="218" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1" s="74">
       <c r="A13" s="120" t="n"/>
@@ -3266,7 +3283,7 @@
       <c r="G13" s="120" t="n"/>
       <c r="H13" s="120" t="n"/>
       <c r="I13" s="120" t="n"/>
-      <c r="J13" s="218" t="n"/>
+      <c r="J13" s="219" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1" s="74">
       <c r="A14" s="118" t="n"/>
@@ -3278,7 +3295,7 @@
       <c r="G14" s="118" t="n"/>
       <c r="H14" s="118" t="n"/>
       <c r="I14" s="118" t="n"/>
-      <c r="J14" s="217" t="n"/>
+      <c r="J14" s="218" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1" s="74">
       <c r="A15" s="120" t="n"/>
@@ -3290,7 +3307,7 @@
       <c r="G15" s="120" t="n"/>
       <c r="H15" s="120" t="n"/>
       <c r="I15" s="120" t="n"/>
-      <c r="J15" s="218" t="n"/>
+      <c r="J15" s="219" t="n"/>
     </row>
     <row r="16" ht="60" customHeight="1" s="74">
       <c r="A16" s="118" t="n"/>
@@ -3302,7 +3319,7 @@
       <c r="G16" s="118" t="n"/>
       <c r="H16" s="118" t="n"/>
       <c r="I16" s="118" t="n"/>
-      <c r="J16" s="217" t="n"/>
+      <c r="J16" s="218" t="n"/>
     </row>
     <row r="17" ht="60" customHeight="1" s="74">
       <c r="A17" s="120" t="n"/>
@@ -3314,7 +3331,7 @@
       <c r="G17" s="120" t="n"/>
       <c r="H17" s="120" t="n"/>
       <c r="I17" s="120" t="n"/>
-      <c r="J17" s="218" t="n"/>
+      <c r="J17" s="219" t="n"/>
     </row>
     <row r="18" ht="60" customHeight="1" s="74">
       <c r="A18" s="118" t="n"/>
@@ -3326,7 +3343,7 @@
       <c r="G18" s="118" t="n"/>
       <c r="H18" s="118" t="n"/>
       <c r="I18" s="118" t="n"/>
-      <c r="J18" s="217" t="n"/>
+      <c r="J18" s="218" t="n"/>
     </row>
     <row r="19" ht="60" customHeight="1" s="74">
       <c r="A19" s="120" t="n"/>
@@ -3338,7 +3355,7 @@
       <c r="G19" s="120" t="n"/>
       <c r="H19" s="120" t="n"/>
       <c r="I19" s="120" t="n"/>
-      <c r="J19" s="218" t="n"/>
+      <c r="J19" s="219" t="n"/>
     </row>
     <row r="20" ht="60" customHeight="1" s="74">
       <c r="A20" s="118" t="n"/>
@@ -3350,7 +3367,7 @@
       <c r="G20" s="118" t="n"/>
       <c r="H20" s="118" t="n"/>
       <c r="I20" s="118" t="n"/>
-      <c r="J20" s="217" t="n"/>
+      <c r="J20" s="218" t="n"/>
     </row>
     <row r="21" ht="60" customHeight="1" s="74">
       <c r="A21" s="120" t="n"/>
@@ -3362,7 +3379,7 @@
       <c r="G21" s="120" t="n"/>
       <c r="H21" s="120" t="n"/>
       <c r="I21" s="120" t="n"/>
-      <c r="J21" s="218" t="n"/>
+      <c r="J21" s="219" t="n"/>
     </row>
     <row r="22" ht="60" customHeight="1" s="74">
       <c r="A22" s="118" t="n"/>
@@ -3374,7 +3391,7 @@
       <c r="G22" s="118" t="n"/>
       <c r="H22" s="118" t="n"/>
       <c r="I22" s="118" t="n"/>
-      <c r="J22" s="217" t="n"/>
+      <c r="J22" s="218" t="n"/>
     </row>
     <row r="23" ht="60" customHeight="1" s="74">
       <c r="A23" s="120" t="n"/>
@@ -3386,7 +3403,7 @@
       <c r="G23" s="120" t="n"/>
       <c r="H23" s="120" t="n"/>
       <c r="I23" s="120" t="n"/>
-      <c r="J23" s="218" t="n"/>
+      <c r="J23" s="219" t="n"/>
     </row>
     <row r="24" ht="60" customHeight="1" s="74">
       <c r="A24" s="118" t="n"/>
@@ -3398,7 +3415,7 @@
       <c r="G24" s="118" t="n"/>
       <c r="H24" s="118" t="n"/>
       <c r="I24" s="118" t="n"/>
-      <c r="J24" s="217" t="n"/>
+      <c r="J24" s="218" t="n"/>
     </row>
     <row r="25" ht="60" customHeight="1" s="74">
       <c r="A25" s="120" t="n"/>
@@ -3410,7 +3427,7 @@
       <c r="G25" s="120" t="n"/>
       <c r="H25" s="120" t="n"/>
       <c r="I25" s="120" t="n"/>
-      <c r="J25" s="218" t="n"/>
+      <c r="J25" s="219" t="n"/>
     </row>
     <row r="26" ht="60" customHeight="1" s="74">
       <c r="A26" s="118" t="n"/>
@@ -3422,7 +3439,7 @@
       <c r="G26" s="118" t="n"/>
       <c r="H26" s="118" t="n"/>
       <c r="I26" s="118" t="n"/>
-      <c r="J26" s="217" t="n"/>
+      <c r="J26" s="218" t="n"/>
     </row>
     <row r="27" ht="60" customHeight="1" s="74">
       <c r="A27" s="120" t="n"/>
@@ -3434,7 +3451,7 @@
       <c r="G27" s="120" t="n"/>
       <c r="H27" s="120" t="n"/>
       <c r="I27" s="120" t="n"/>
-      <c r="J27" s="218" t="n"/>
+      <c r="J27" s="219" t="n"/>
     </row>
     <row r="28" ht="60" customHeight="1" s="74">
       <c r="A28" s="118" t="n"/>
@@ -3446,7 +3463,7 @@
       <c r="G28" s="118" t="n"/>
       <c r="H28" s="118" t="n"/>
       <c r="I28" s="118" t="n"/>
-      <c r="J28" s="217" t="n"/>
+      <c r="J28" s="218" t="n"/>
     </row>
     <row r="29" ht="60" customHeight="1" s="74">
       <c r="A29" s="120" t="n"/>
@@ -3458,7 +3475,7 @@
       <c r="G29" s="120" t="n"/>
       <c r="H29" s="120" t="n"/>
       <c r="I29" s="120" t="n"/>
-      <c r="J29" s="218" t="n"/>
+      <c r="J29" s="219" t="n"/>
     </row>
     <row r="30" ht="60" customHeight="1" s="74">
       <c r="A30" s="118" t="n"/>
@@ -3470,7 +3487,7 @@
       <c r="G30" s="118" t="n"/>
       <c r="H30" s="118" t="n"/>
       <c r="I30" s="118" t="n"/>
-      <c r="J30" s="217" t="n"/>
+      <c r="J30" s="218" t="n"/>
     </row>
     <row r="31">
       <c r="J31" s="115" t="n"/>
@@ -3503,48 +3520,48 @@
       <c r="J33" s="115" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="219" t="inlineStr">
+      <c r="A34" s="220" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B34" s="219" t="inlineStr">
+      <c r="B34" s="220" t="inlineStr">
         <is>
           <t>Restituidor</t>
         </is>
       </c>
-      <c r="C34" s="219" t="inlineStr">
+      <c r="C34" s="220" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D34" s="221" t="inlineStr">
+      <c r="D34" s="222" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
       <c r="E34" s="126" t="n"/>
-      <c r="F34" s="219" t="inlineStr">
+      <c r="F34" s="220" t="inlineStr">
         <is>
           <t>Cheque equivalente</t>
         </is>
       </c>
-      <c r="G34" s="219" t="inlineStr">
+      <c r="G34" s="220" t="inlineStr">
         <is>
           <t>Data do Cheque</t>
         </is>
       </c>
-      <c r="H34" s="219" t="inlineStr">
+      <c r="H34" s="220" t="inlineStr">
         <is>
           <t>Nº do Depósito</t>
         </is>
       </c>
-      <c r="I34" s="219" t="inlineStr">
+      <c r="I34" s="220" t="inlineStr">
         <is>
           <t>Data da Devolução</t>
         </is>
       </c>
-      <c r="J34" s="220" t="inlineStr">
+      <c r="J34" s="221" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -3737,52 +3754,52 @@
       <c r="J8" s="115" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="222" t="inlineStr">
+      <c r="A9" s="223" t="inlineStr">
         <is>
           <t>ITEM</t>
         </is>
       </c>
-      <c r="B9" s="222" t="inlineStr">
+      <c r="B9" s="223" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="C9" s="222" t="inlineStr">
+      <c r="C9" s="223" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D9" s="222" t="inlineStr">
+      <c r="D9" s="223" t="inlineStr">
         <is>
           <t>ESPECIFICAÇÃO DA DESPESA</t>
         </is>
       </c>
-      <c r="E9" s="222" t="inlineStr">
+      <c r="E9" s="223" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="F9" s="222" t="inlineStr">
+      <c r="F9" s="223" t="inlineStr">
         <is>
           <t>Nº DO RECIBO OU EQUIVALENTE</t>
         </is>
       </c>
-      <c r="G9" s="222" t="inlineStr">
+      <c r="G9" s="223" t="inlineStr">
         <is>
           <t>DATA DE EMISSÃO</t>
         </is>
       </c>
-      <c r="H9" s="222" t="inlineStr">
+      <c r="H9" s="223" t="inlineStr">
         <is>
           <t>CHEQUE / ORDEM BANCÁRIA</t>
         </is>
       </c>
-      <c r="I9" s="222" t="inlineStr">
+      <c r="I9" s="223" t="inlineStr">
         <is>
           <t>DATA DE PGTO</t>
         </is>
       </c>
-      <c r="J9" s="223" t="inlineStr">
+      <c r="J9" s="224" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -3798,7 +3815,7 @@
       <c r="G10" s="118" t="n"/>
       <c r="H10" s="118" t="n"/>
       <c r="I10" s="118" t="n"/>
-      <c r="J10" s="224" t="n"/>
+      <c r="J10" s="225" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1" s="74">
       <c r="A11" s="120" t="n"/>
@@ -3810,7 +3827,7 @@
       <c r="G11" s="120" t="n"/>
       <c r="H11" s="120" t="n"/>
       <c r="I11" s="120" t="n"/>
-      <c r="J11" s="225" t="n"/>
+      <c r="J11" s="226" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1" s="74">
       <c r="A12" s="118" t="n"/>
@@ -3822,7 +3839,7 @@
       <c r="G12" s="118" t="n"/>
       <c r="H12" s="118" t="n"/>
       <c r="I12" s="118" t="n"/>
-      <c r="J12" s="224" t="n"/>
+      <c r="J12" s="225" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1" s="74">
       <c r="A13" s="120" t="n"/>
@@ -3834,7 +3851,7 @@
       <c r="G13" s="120" t="n"/>
       <c r="H13" s="120" t="n"/>
       <c r="I13" s="120" t="n"/>
-      <c r="J13" s="225" t="n"/>
+      <c r="J13" s="226" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1" s="74">
       <c r="A14" s="118" t="n"/>
@@ -3846,7 +3863,7 @@
       <c r="G14" s="118" t="n"/>
       <c r="H14" s="118" t="n"/>
       <c r="I14" s="118" t="n"/>
-      <c r="J14" s="224" t="n"/>
+      <c r="J14" s="225" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1" s="74">
       <c r="A15" s="120" t="n"/>
@@ -3858,7 +3875,7 @@
       <c r="G15" s="120" t="n"/>
       <c r="H15" s="120" t="n"/>
       <c r="I15" s="120" t="n"/>
-      <c r="J15" s="225" t="n"/>
+      <c r="J15" s="226" t="n"/>
     </row>
     <row r="16" ht="60" customHeight="1" s="74">
       <c r="A16" s="118" t="n"/>
@@ -3870,7 +3887,7 @@
       <c r="G16" s="118" t="n"/>
       <c r="H16" s="118" t="n"/>
       <c r="I16" s="118" t="n"/>
-      <c r="J16" s="224" t="n"/>
+      <c r="J16" s="225" t="n"/>
     </row>
     <row r="17" ht="60" customHeight="1" s="74">
       <c r="A17" s="120" t="n"/>
@@ -3882,7 +3899,7 @@
       <c r="G17" s="120" t="n"/>
       <c r="H17" s="120" t="n"/>
       <c r="I17" s="120" t="n"/>
-      <c r="J17" s="225" t="n"/>
+      <c r="J17" s="226" t="n"/>
     </row>
     <row r="18" ht="60" customHeight="1" s="74">
       <c r="A18" s="118" t="n"/>
@@ -3894,7 +3911,7 @@
       <c r="G18" s="118" t="n"/>
       <c r="H18" s="118" t="n"/>
       <c r="I18" s="118" t="n"/>
-      <c r="J18" s="224" t="n"/>
+      <c r="J18" s="225" t="n"/>
     </row>
     <row r="19" ht="60" customHeight="1" s="74">
       <c r="A19" s="120" t="n"/>
@@ -3906,7 +3923,7 @@
       <c r="G19" s="120" t="n"/>
       <c r="H19" s="120" t="n"/>
       <c r="I19" s="120" t="n"/>
-      <c r="J19" s="225" t="n"/>
+      <c r="J19" s="226" t="n"/>
     </row>
     <row r="20" ht="60" customHeight="1" s="74">
       <c r="A20" s="118" t="n"/>
@@ -3918,7 +3935,7 @@
       <c r="G20" s="118" t="n"/>
       <c r="H20" s="118" t="n"/>
       <c r="I20" s="118" t="n"/>
-      <c r="J20" s="224" t="n"/>
+      <c r="J20" s="225" t="n"/>
     </row>
     <row r="21" ht="60" customHeight="1" s="74">
       <c r="A21" s="120" t="n"/>
@@ -3930,7 +3947,7 @@
       <c r="G21" s="120" t="n"/>
       <c r="H21" s="120" t="n"/>
       <c r="I21" s="120" t="n"/>
-      <c r="J21" s="225" t="n"/>
+      <c r="J21" s="226" t="n"/>
     </row>
     <row r="22" ht="60" customHeight="1" s="74">
       <c r="A22" s="118" t="n"/>
@@ -3942,7 +3959,7 @@
       <c r="G22" s="118" t="n"/>
       <c r="H22" s="118" t="n"/>
       <c r="I22" s="118" t="n"/>
-      <c r="J22" s="224" t="n"/>
+      <c r="J22" s="225" t="n"/>
     </row>
     <row r="23" ht="60" customHeight="1" s="74">
       <c r="A23" s="120" t="n"/>
@@ -3954,7 +3971,7 @@
       <c r="G23" s="120" t="n"/>
       <c r="H23" s="120" t="n"/>
       <c r="I23" s="120" t="n"/>
-      <c r="J23" s="225" t="n"/>
+      <c r="J23" s="226" t="n"/>
     </row>
     <row r="24" ht="60" customHeight="1" s="74">
       <c r="A24" s="118" t="n"/>
@@ -3966,7 +3983,7 @@
       <c r="G24" s="118" t="n"/>
       <c r="H24" s="118" t="n"/>
       <c r="I24" s="118" t="n"/>
-      <c r="J24" s="224" t="n"/>
+      <c r="J24" s="225" t="n"/>
     </row>
     <row r="25" ht="60" customHeight="1" s="74">
       <c r="A25" s="120" t="n"/>
@@ -3978,7 +3995,7 @@
       <c r="G25" s="120" t="n"/>
       <c r="H25" s="120" t="n"/>
       <c r="I25" s="120" t="n"/>
-      <c r="J25" s="225" t="n"/>
+      <c r="J25" s="226" t="n"/>
     </row>
     <row r="26" ht="60" customHeight="1" s="74">
       <c r="A26" s="118" t="n"/>
@@ -3990,7 +4007,7 @@
       <c r="G26" s="118" t="n"/>
       <c r="H26" s="118" t="n"/>
       <c r="I26" s="118" t="n"/>
-      <c r="J26" s="224" t="n"/>
+      <c r="J26" s="225" t="n"/>
     </row>
     <row r="27" ht="60" customHeight="1" s="74">
       <c r="A27" s="120" t="n"/>
@@ -4002,7 +4019,7 @@
       <c r="G27" s="120" t="n"/>
       <c r="H27" s="120" t="n"/>
       <c r="I27" s="120" t="n"/>
-      <c r="J27" s="225" t="n"/>
+      <c r="J27" s="226" t="n"/>
     </row>
     <row r="28" ht="60" customHeight="1" s="74">
       <c r="A28" s="118" t="n"/>
@@ -4014,7 +4031,7 @@
       <c r="G28" s="118" t="n"/>
       <c r="H28" s="118" t="n"/>
       <c r="I28" s="118" t="n"/>
-      <c r="J28" s="224" t="n"/>
+      <c r="J28" s="225" t="n"/>
     </row>
     <row r="29" ht="60" customHeight="1" s="74">
       <c r="A29" s="120" t="n"/>
@@ -4026,7 +4043,7 @@
       <c r="G29" s="120" t="n"/>
       <c r="H29" s="120" t="n"/>
       <c r="I29" s="120" t="n"/>
-      <c r="J29" s="225" t="n"/>
+      <c r="J29" s="226" t="n"/>
     </row>
     <row r="30" ht="60" customHeight="1" s="74">
       <c r="A30" s="118" t="n"/>
@@ -4038,7 +4055,7 @@
       <c r="G30" s="118" t="n"/>
       <c r="H30" s="118" t="n"/>
       <c r="I30" s="118" t="n"/>
-      <c r="J30" s="224" t="n"/>
+      <c r="J30" s="225" t="n"/>
     </row>
     <row r="31">
       <c r="J31" s="115" t="n"/>
@@ -4071,48 +4088,48 @@
       <c r="J33" s="115" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="226" t="inlineStr">
+      <c r="A34" s="227" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B34" s="226" t="inlineStr">
+      <c r="B34" s="227" t="inlineStr">
         <is>
           <t>Restituidor</t>
         </is>
       </c>
-      <c r="C34" s="226" t="inlineStr">
+      <c r="C34" s="227" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D34" s="228" t="inlineStr">
+      <c r="D34" s="229" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
       <c r="E34" s="126" t="n"/>
-      <c r="F34" s="226" t="inlineStr">
+      <c r="F34" s="227" t="inlineStr">
         <is>
           <t>Cheque equivalente</t>
         </is>
       </c>
-      <c r="G34" s="226" t="inlineStr">
+      <c r="G34" s="227" t="inlineStr">
         <is>
           <t>Data do Cheque</t>
         </is>
       </c>
-      <c r="H34" s="226" t="inlineStr">
+      <c r="H34" s="227" t="inlineStr">
         <is>
           <t>Nº do Depósito</t>
         </is>
       </c>
-      <c r="I34" s="226" t="inlineStr">
+      <c r="I34" s="227" t="inlineStr">
         <is>
           <t>Data da Devolução</t>
         </is>
       </c>
-      <c r="J34" s="227" t="inlineStr">
+      <c r="J34" s="228" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -4305,52 +4322,52 @@
       <c r="J8" s="115" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="229" t="inlineStr">
+      <c r="A9" s="230" t="inlineStr">
         <is>
           <t>ITEM</t>
         </is>
       </c>
-      <c r="B9" s="229" t="inlineStr">
+      <c r="B9" s="230" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="C9" s="229" t="inlineStr">
+      <c r="C9" s="230" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D9" s="229" t="inlineStr">
+      <c r="D9" s="230" t="inlineStr">
         <is>
           <t>ESPECIFICAÇÃO DA DESPESA</t>
         </is>
       </c>
-      <c r="E9" s="229" t="inlineStr">
+      <c r="E9" s="230" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="F9" s="229" t="inlineStr">
+      <c r="F9" s="230" t="inlineStr">
         <is>
           <t>Nº DO RECIBO OU EQUIVALENTE</t>
         </is>
       </c>
-      <c r="G9" s="229" t="inlineStr">
+      <c r="G9" s="230" t="inlineStr">
         <is>
           <t>DATA DE EMISSÃO</t>
         </is>
       </c>
-      <c r="H9" s="229" t="inlineStr">
+      <c r="H9" s="230" t="inlineStr">
         <is>
           <t>CHEQUE / ORDEM BANCÁRIA</t>
         </is>
       </c>
-      <c r="I9" s="229" t="inlineStr">
+      <c r="I9" s="230" t="inlineStr">
         <is>
           <t>DATA DE PGTO</t>
         </is>
       </c>
-      <c r="J9" s="230" t="inlineStr">
+      <c r="J9" s="231" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -4366,7 +4383,7 @@
       <c r="G10" s="118" t="n"/>
       <c r="H10" s="118" t="n"/>
       <c r="I10" s="118" t="n"/>
-      <c r="J10" s="231" t="n"/>
+      <c r="J10" s="232" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1" s="74">
       <c r="A11" s="120" t="n"/>
@@ -4378,7 +4395,7 @@
       <c r="G11" s="120" t="n"/>
       <c r="H11" s="120" t="n"/>
       <c r="I11" s="120" t="n"/>
-      <c r="J11" s="232" t="n"/>
+      <c r="J11" s="233" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1" s="74">
       <c r="A12" s="118" t="n"/>
@@ -4390,7 +4407,7 @@
       <c r="G12" s="118" t="n"/>
       <c r="H12" s="118" t="n"/>
       <c r="I12" s="118" t="n"/>
-      <c r="J12" s="231" t="n"/>
+      <c r="J12" s="232" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1" s="74">
       <c r="A13" s="120" t="n"/>
@@ -4402,7 +4419,7 @@
       <c r="G13" s="120" t="n"/>
       <c r="H13" s="120" t="n"/>
       <c r="I13" s="120" t="n"/>
-      <c r="J13" s="232" t="n"/>
+      <c r="J13" s="233" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1" s="74">
       <c r="A14" s="118" t="n"/>
@@ -4414,7 +4431,7 @@
       <c r="G14" s="118" t="n"/>
       <c r="H14" s="118" t="n"/>
       <c r="I14" s="118" t="n"/>
-      <c r="J14" s="231" t="n"/>
+      <c r="J14" s="232" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1" s="74">
       <c r="A15" s="120" t="n"/>
@@ -4426,7 +4443,7 @@
       <c r="G15" s="120" t="n"/>
       <c r="H15" s="120" t="n"/>
       <c r="I15" s="120" t="n"/>
-      <c r="J15" s="232" t="n"/>
+      <c r="J15" s="233" t="n"/>
     </row>
     <row r="16" ht="60" customHeight="1" s="74">
       <c r="A16" s="118" t="n"/>
@@ -4438,7 +4455,7 @@
       <c r="G16" s="118" t="n"/>
       <c r="H16" s="118" t="n"/>
       <c r="I16" s="118" t="n"/>
-      <c r="J16" s="231" t="n"/>
+      <c r="J16" s="232" t="n"/>
     </row>
     <row r="17" ht="60" customHeight="1" s="74">
       <c r="A17" s="120" t="n"/>
@@ -4450,7 +4467,7 @@
       <c r="G17" s="120" t="n"/>
       <c r="H17" s="120" t="n"/>
       <c r="I17" s="120" t="n"/>
-      <c r="J17" s="232" t="n"/>
+      <c r="J17" s="233" t="n"/>
     </row>
     <row r="18" ht="60" customHeight="1" s="74">
       <c r="A18" s="118" t="n"/>
@@ -4462,7 +4479,7 @@
       <c r="G18" s="118" t="n"/>
       <c r="H18" s="118" t="n"/>
       <c r="I18" s="118" t="n"/>
-      <c r="J18" s="231" t="n"/>
+      <c r="J18" s="232" t="n"/>
     </row>
     <row r="19" ht="60" customHeight="1" s="74">
       <c r="A19" s="120" t="n"/>
@@ -4474,7 +4491,7 @@
       <c r="G19" s="120" t="n"/>
       <c r="H19" s="120" t="n"/>
       <c r="I19" s="120" t="n"/>
-      <c r="J19" s="232" t="n"/>
+      <c r="J19" s="233" t="n"/>
     </row>
     <row r="20" ht="60" customHeight="1" s="74">
       <c r="A20" s="118" t="n"/>
@@ -4486,7 +4503,7 @@
       <c r="G20" s="118" t="n"/>
       <c r="H20" s="118" t="n"/>
       <c r="I20" s="118" t="n"/>
-      <c r="J20" s="231" t="n"/>
+      <c r="J20" s="232" t="n"/>
     </row>
     <row r="21" ht="60" customHeight="1" s="74">
       <c r="A21" s="120" t="n"/>
@@ -4498,7 +4515,7 @@
       <c r="G21" s="120" t="n"/>
       <c r="H21" s="120" t="n"/>
       <c r="I21" s="120" t="n"/>
-      <c r="J21" s="232" t="n"/>
+      <c r="J21" s="233" t="n"/>
     </row>
     <row r="22" ht="60" customHeight="1" s="74">
       <c r="A22" s="118" t="n"/>
@@ -4510,7 +4527,7 @@
       <c r="G22" s="118" t="n"/>
       <c r="H22" s="118" t="n"/>
       <c r="I22" s="118" t="n"/>
-      <c r="J22" s="231" t="n"/>
+      <c r="J22" s="232" t="n"/>
     </row>
     <row r="23" ht="60" customHeight="1" s="74">
       <c r="A23" s="120" t="n"/>
@@ -4522,7 +4539,7 @@
       <c r="G23" s="120" t="n"/>
       <c r="H23" s="120" t="n"/>
       <c r="I23" s="120" t="n"/>
-      <c r="J23" s="232" t="n"/>
+      <c r="J23" s="233" t="n"/>
     </row>
     <row r="24" ht="60" customHeight="1" s="74">
       <c r="A24" s="118" t="n"/>
@@ -4534,7 +4551,7 @@
       <c r="G24" s="118" t="n"/>
       <c r="H24" s="118" t="n"/>
       <c r="I24" s="118" t="n"/>
-      <c r="J24" s="231" t="n"/>
+      <c r="J24" s="232" t="n"/>
     </row>
     <row r="25" ht="60" customHeight="1" s="74">
       <c r="A25" s="120" t="n"/>
@@ -4546,7 +4563,7 @@
       <c r="G25" s="120" t="n"/>
       <c r="H25" s="120" t="n"/>
       <c r="I25" s="120" t="n"/>
-      <c r="J25" s="232" t="n"/>
+      <c r="J25" s="233" t="n"/>
     </row>
     <row r="26" ht="60" customHeight="1" s="74">
       <c r="A26" s="118" t="n"/>
@@ -4558,7 +4575,7 @@
       <c r="G26" s="118" t="n"/>
       <c r="H26" s="118" t="n"/>
       <c r="I26" s="118" t="n"/>
-      <c r="J26" s="231" t="n"/>
+      <c r="J26" s="232" t="n"/>
     </row>
     <row r="27" ht="60" customHeight="1" s="74">
       <c r="A27" s="120" t="n"/>
@@ -4570,7 +4587,7 @@
       <c r="G27" s="120" t="n"/>
       <c r="H27" s="120" t="n"/>
       <c r="I27" s="120" t="n"/>
-      <c r="J27" s="232" t="n"/>
+      <c r="J27" s="233" t="n"/>
     </row>
     <row r="28" ht="60" customHeight="1" s="74">
       <c r="A28" s="118" t="n"/>
@@ -4582,7 +4599,7 @@
       <c r="G28" s="118" t="n"/>
       <c r="H28" s="118" t="n"/>
       <c r="I28" s="118" t="n"/>
-      <c r="J28" s="231" t="n"/>
+      <c r="J28" s="232" t="n"/>
     </row>
     <row r="29" ht="60" customHeight="1" s="74">
       <c r="A29" s="120" t="n"/>
@@ -4594,7 +4611,7 @@
       <c r="G29" s="120" t="n"/>
       <c r="H29" s="120" t="n"/>
       <c r="I29" s="120" t="n"/>
-      <c r="J29" s="232" t="n"/>
+      <c r="J29" s="233" t="n"/>
     </row>
     <row r="30" ht="60" customHeight="1" s="74">
       <c r="A30" s="118" t="n"/>
@@ -4606,7 +4623,7 @@
       <c r="G30" s="118" t="n"/>
       <c r="H30" s="118" t="n"/>
       <c r="I30" s="118" t="n"/>
-      <c r="J30" s="231" t="n"/>
+      <c r="J30" s="232" t="n"/>
     </row>
     <row r="31">
       <c r="J31" s="115" t="n"/>
@@ -4639,48 +4656,48 @@
       <c r="J33" s="115" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="233" t="inlineStr">
+      <c r="A34" s="234" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B34" s="233" t="inlineStr">
+      <c r="B34" s="234" t="inlineStr">
         <is>
           <t>Restituidor</t>
         </is>
       </c>
-      <c r="C34" s="233" t="inlineStr">
+      <c r="C34" s="234" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D34" s="235" t="inlineStr">
+      <c r="D34" s="236" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
       <c r="E34" s="126" t="n"/>
-      <c r="F34" s="233" t="inlineStr">
+      <c r="F34" s="234" t="inlineStr">
         <is>
           <t>Cheque equivalente</t>
         </is>
       </c>
-      <c r="G34" s="233" t="inlineStr">
+      <c r="G34" s="234" t="inlineStr">
         <is>
           <t>Data do Cheque</t>
         </is>
       </c>
-      <c r="H34" s="233" t="inlineStr">
+      <c r="H34" s="234" t="inlineStr">
         <is>
           <t>Nº do Depósito</t>
         </is>
       </c>
-      <c r="I34" s="233" t="inlineStr">
+      <c r="I34" s="234" t="inlineStr">
         <is>
           <t>Data da Devolução</t>
         </is>
       </c>
-      <c r="J34" s="234" t="inlineStr">
+      <c r="J34" s="235" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -4873,52 +4890,52 @@
       <c r="J8" s="115" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="236" t="inlineStr">
+      <c r="A9" s="237" t="inlineStr">
         <is>
           <t>ITEM</t>
         </is>
       </c>
-      <c r="B9" s="236" t="inlineStr">
+      <c r="B9" s="237" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="C9" s="236" t="inlineStr">
+      <c r="C9" s="237" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D9" s="236" t="inlineStr">
+      <c r="D9" s="237" t="inlineStr">
         <is>
           <t>ESPECIFICAÇÃO DA DESPESA</t>
         </is>
       </c>
-      <c r="E9" s="236" t="inlineStr">
+      <c r="E9" s="237" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="F9" s="236" t="inlineStr">
+      <c r="F9" s="237" t="inlineStr">
         <is>
           <t>Nº DO RECIBO OU EQUIVALENTE</t>
         </is>
       </c>
-      <c r="G9" s="236" t="inlineStr">
+      <c r="G9" s="237" t="inlineStr">
         <is>
           <t>DATA DE EMISSÃO</t>
         </is>
       </c>
-      <c r="H9" s="236" t="inlineStr">
+      <c r="H9" s="237" t="inlineStr">
         <is>
           <t>CHEQUE / ORDEM BANCÁRIA</t>
         </is>
       </c>
-      <c r="I9" s="236" t="inlineStr">
+      <c r="I9" s="237" t="inlineStr">
         <is>
           <t>DATA DE PGTO</t>
         </is>
       </c>
-      <c r="J9" s="237" t="inlineStr">
+      <c r="J9" s="238" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -4934,7 +4951,7 @@
       <c r="G10" s="118" t="n"/>
       <c r="H10" s="118" t="n"/>
       <c r="I10" s="118" t="n"/>
-      <c r="J10" s="238" t="n"/>
+      <c r="J10" s="239" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1" s="74">
       <c r="A11" s="120" t="n"/>
@@ -4946,7 +4963,7 @@
       <c r="G11" s="120" t="n"/>
       <c r="H11" s="120" t="n"/>
       <c r="I11" s="120" t="n"/>
-      <c r="J11" s="239" t="n"/>
+      <c r="J11" s="240" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1" s="74">
       <c r="A12" s="118" t="n"/>
@@ -4958,7 +4975,7 @@
       <c r="G12" s="118" t="n"/>
       <c r="H12" s="118" t="n"/>
       <c r="I12" s="118" t="n"/>
-      <c r="J12" s="238" t="n"/>
+      <c r="J12" s="239" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1" s="74">
       <c r="A13" s="120" t="n"/>
@@ -4970,7 +4987,7 @@
       <c r="G13" s="120" t="n"/>
       <c r="H13" s="120" t="n"/>
       <c r="I13" s="120" t="n"/>
-      <c r="J13" s="239" t="n"/>
+      <c r="J13" s="240" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1" s="74">
       <c r="A14" s="118" t="n"/>
@@ -4982,7 +4999,7 @@
       <c r="G14" s="118" t="n"/>
       <c r="H14" s="118" t="n"/>
       <c r="I14" s="118" t="n"/>
-      <c r="J14" s="238" t="n"/>
+      <c r="J14" s="239" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1" s="74">
       <c r="A15" s="120" t="n"/>
@@ -4994,7 +5011,7 @@
       <c r="G15" s="120" t="n"/>
       <c r="H15" s="120" t="n"/>
       <c r="I15" s="120" t="n"/>
-      <c r="J15" s="239" t="n"/>
+      <c r="J15" s="240" t="n"/>
     </row>
     <row r="16" ht="60" customHeight="1" s="74">
       <c r="A16" s="118" t="n"/>
@@ -5006,7 +5023,7 @@
       <c r="G16" s="118" t="n"/>
       <c r="H16" s="118" t="n"/>
       <c r="I16" s="118" t="n"/>
-      <c r="J16" s="238" t="n"/>
+      <c r="J16" s="239" t="n"/>
     </row>
     <row r="17" ht="60" customHeight="1" s="74">
       <c r="A17" s="120" t="n"/>
@@ -5018,7 +5035,7 @@
       <c r="G17" s="120" t="n"/>
       <c r="H17" s="120" t="n"/>
       <c r="I17" s="120" t="n"/>
-      <c r="J17" s="239" t="n"/>
+      <c r="J17" s="240" t="n"/>
     </row>
     <row r="18" ht="60" customHeight="1" s="74">
       <c r="A18" s="118" t="n"/>
@@ -5030,7 +5047,7 @@
       <c r="G18" s="118" t="n"/>
       <c r="H18" s="118" t="n"/>
       <c r="I18" s="118" t="n"/>
-      <c r="J18" s="238" t="n"/>
+      <c r="J18" s="239" t="n"/>
     </row>
     <row r="19" ht="60" customHeight="1" s="74">
       <c r="A19" s="120" t="n"/>
@@ -5042,7 +5059,7 @@
       <c r="G19" s="120" t="n"/>
       <c r="H19" s="120" t="n"/>
       <c r="I19" s="120" t="n"/>
-      <c r="J19" s="239" t="n"/>
+      <c r="J19" s="240" t="n"/>
     </row>
     <row r="20" ht="60" customHeight="1" s="74">
       <c r="A20" s="118" t="n"/>
@@ -5054,7 +5071,7 @@
       <c r="G20" s="118" t="n"/>
       <c r="H20" s="118" t="n"/>
       <c r="I20" s="118" t="n"/>
-      <c r="J20" s="238" t="n"/>
+      <c r="J20" s="239" t="n"/>
     </row>
     <row r="21" ht="60" customHeight="1" s="74">
       <c r="A21" s="120" t="n"/>
@@ -5066,7 +5083,7 @@
       <c r="G21" s="120" t="n"/>
       <c r="H21" s="120" t="n"/>
       <c r="I21" s="120" t="n"/>
-      <c r="J21" s="239" t="n"/>
+      <c r="J21" s="240" t="n"/>
     </row>
     <row r="22" ht="60" customHeight="1" s="74">
       <c r="A22" s="118" t="n"/>
@@ -5078,7 +5095,7 @@
       <c r="G22" s="118" t="n"/>
       <c r="H22" s="118" t="n"/>
       <c r="I22" s="118" t="n"/>
-      <c r="J22" s="238" t="n"/>
+      <c r="J22" s="239" t="n"/>
     </row>
     <row r="23" ht="60" customHeight="1" s="74">
       <c r="A23" s="120" t="n"/>
@@ -5090,7 +5107,7 @@
       <c r="G23" s="120" t="n"/>
       <c r="H23" s="120" t="n"/>
       <c r="I23" s="120" t="n"/>
-      <c r="J23" s="239" t="n"/>
+      <c r="J23" s="240" t="n"/>
     </row>
     <row r="24" ht="60" customHeight="1" s="74">
       <c r="A24" s="118" t="n"/>
@@ -5102,7 +5119,7 @@
       <c r="G24" s="118" t="n"/>
       <c r="H24" s="118" t="n"/>
       <c r="I24" s="118" t="n"/>
-      <c r="J24" s="238" t="n"/>
+      <c r="J24" s="239" t="n"/>
     </row>
     <row r="25" ht="60" customHeight="1" s="74">
       <c r="A25" s="120" t="n"/>
@@ -5114,7 +5131,7 @@
       <c r="G25" s="120" t="n"/>
       <c r="H25" s="120" t="n"/>
       <c r="I25" s="120" t="n"/>
-      <c r="J25" s="239" t="n"/>
+      <c r="J25" s="240" t="n"/>
     </row>
     <row r="26" ht="60" customHeight="1" s="74">
       <c r="A26" s="118" t="n"/>
@@ -5126,7 +5143,7 @@
       <c r="G26" s="118" t="n"/>
       <c r="H26" s="118" t="n"/>
       <c r="I26" s="118" t="n"/>
-      <c r="J26" s="238" t="n"/>
+      <c r="J26" s="239" t="n"/>
     </row>
     <row r="27" ht="60" customHeight="1" s="74">
       <c r="A27" s="120" t="n"/>
@@ -5138,7 +5155,7 @@
       <c r="G27" s="120" t="n"/>
       <c r="H27" s="120" t="n"/>
       <c r="I27" s="120" t="n"/>
-      <c r="J27" s="239" t="n"/>
+      <c r="J27" s="240" t="n"/>
     </row>
     <row r="28" ht="60" customHeight="1" s="74">
       <c r="A28" s="118" t="n"/>
@@ -5150,7 +5167,7 @@
       <c r="G28" s="118" t="n"/>
       <c r="H28" s="118" t="n"/>
       <c r="I28" s="118" t="n"/>
-      <c r="J28" s="238" t="n"/>
+      <c r="J28" s="239" t="n"/>
     </row>
     <row r="29" ht="60" customHeight="1" s="74">
       <c r="A29" s="120" t="n"/>
@@ -5162,7 +5179,7 @@
       <c r="G29" s="120" t="n"/>
       <c r="H29" s="120" t="n"/>
       <c r="I29" s="120" t="n"/>
-      <c r="J29" s="239" t="n"/>
+      <c r="J29" s="240" t="n"/>
     </row>
     <row r="30" ht="60" customHeight="1" s="74">
       <c r="A30" s="118" t="n"/>
@@ -5174,7 +5191,7 @@
       <c r="G30" s="118" t="n"/>
       <c r="H30" s="118" t="n"/>
       <c r="I30" s="118" t="n"/>
-      <c r="J30" s="238" t="n"/>
+      <c r="J30" s="239" t="n"/>
     </row>
     <row r="31">
       <c r="J31" s="115" t="n"/>
@@ -5207,48 +5224,48 @@
       <c r="J33" s="115" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="240" t="inlineStr">
+      <c r="A34" s="241" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B34" s="240" t="inlineStr">
+      <c r="B34" s="241" t="inlineStr">
         <is>
           <t>Restituidor</t>
         </is>
       </c>
-      <c r="C34" s="240" t="inlineStr">
+      <c r="C34" s="241" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D34" s="242" t="inlineStr">
+      <c r="D34" s="243" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
       <c r="E34" s="126" t="n"/>
-      <c r="F34" s="240" t="inlineStr">
+      <c r="F34" s="241" t="inlineStr">
         <is>
           <t>Cheque equivalente</t>
         </is>
       </c>
-      <c r="G34" s="240" t="inlineStr">
+      <c r="G34" s="241" t="inlineStr">
         <is>
           <t>Data do Cheque</t>
         </is>
       </c>
-      <c r="H34" s="240" t="inlineStr">
+      <c r="H34" s="241" t="inlineStr">
         <is>
           <t>Nº do Depósito</t>
         </is>
       </c>
-      <c r="I34" s="240" t="inlineStr">
+      <c r="I34" s="241" t="inlineStr">
         <is>
           <t>Data da Devolução</t>
         </is>
       </c>
-      <c r="J34" s="241" t="inlineStr">
+      <c r="J34" s="242" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -5441,52 +5458,52 @@
       <c r="J8" s="115" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="243" t="inlineStr">
+      <c r="A9" s="244" t="inlineStr">
         <is>
           <t>ITEM</t>
         </is>
       </c>
-      <c r="B9" s="243" t="inlineStr">
+      <c r="B9" s="244" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="C9" s="243" t="inlineStr">
+      <c r="C9" s="244" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D9" s="243" t="inlineStr">
+      <c r="D9" s="244" t="inlineStr">
         <is>
           <t>ESPECIFICAÇÃO DA DESPESA</t>
         </is>
       </c>
-      <c r="E9" s="243" t="inlineStr">
+      <c r="E9" s="244" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="F9" s="243" t="inlineStr">
+      <c r="F9" s="244" t="inlineStr">
         <is>
           <t>Nº DO RECIBO OU EQUIVALENTE</t>
         </is>
       </c>
-      <c r="G9" s="243" t="inlineStr">
+      <c r="G9" s="244" t="inlineStr">
         <is>
           <t>DATA DE EMISSÃO</t>
         </is>
       </c>
-      <c r="H9" s="243" t="inlineStr">
+      <c r="H9" s="244" t="inlineStr">
         <is>
           <t>CHEQUE / ORDEM BANCÁRIA</t>
         </is>
       </c>
-      <c r="I9" s="243" t="inlineStr">
+      <c r="I9" s="244" t="inlineStr">
         <is>
           <t>DATA DE PGTO</t>
         </is>
       </c>
-      <c r="J9" s="244" t="inlineStr">
+      <c r="J9" s="245" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -5502,7 +5519,7 @@
       <c r="G10" s="118" t="n"/>
       <c r="H10" s="118" t="n"/>
       <c r="I10" s="118" t="n"/>
-      <c r="J10" s="245" t="n"/>
+      <c r="J10" s="246" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1" s="74">
       <c r="A11" s="120" t="n"/>
@@ -5514,7 +5531,7 @@
       <c r="G11" s="120" t="n"/>
       <c r="H11" s="120" t="n"/>
       <c r="I11" s="120" t="n"/>
-      <c r="J11" s="246" t="n"/>
+      <c r="J11" s="247" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1" s="74">
       <c r="A12" s="118" t="n"/>
@@ -5526,7 +5543,7 @@
       <c r="G12" s="118" t="n"/>
       <c r="H12" s="118" t="n"/>
       <c r="I12" s="118" t="n"/>
-      <c r="J12" s="245" t="n"/>
+      <c r="J12" s="246" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1" s="74">
       <c r="A13" s="120" t="n"/>
@@ -5538,7 +5555,7 @@
       <c r="G13" s="120" t="n"/>
       <c r="H13" s="120" t="n"/>
       <c r="I13" s="120" t="n"/>
-      <c r="J13" s="246" t="n"/>
+      <c r="J13" s="247" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1" s="74">
       <c r="A14" s="118" t="n"/>
@@ -5550,7 +5567,7 @@
       <c r="G14" s="118" t="n"/>
       <c r="H14" s="118" t="n"/>
       <c r="I14" s="118" t="n"/>
-      <c r="J14" s="245" t="n"/>
+      <c r="J14" s="246" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1" s="74">
       <c r="A15" s="120" t="n"/>
@@ -5562,7 +5579,7 @@
       <c r="G15" s="120" t="n"/>
       <c r="H15" s="120" t="n"/>
       <c r="I15" s="120" t="n"/>
-      <c r="J15" s="246" t="n"/>
+      <c r="J15" s="247" t="n"/>
     </row>
     <row r="16" ht="60" customHeight="1" s="74">
       <c r="A16" s="118" t="n"/>
@@ -5574,7 +5591,7 @@
       <c r="G16" s="118" t="n"/>
       <c r="H16" s="118" t="n"/>
       <c r="I16" s="118" t="n"/>
-      <c r="J16" s="245" t="n"/>
+      <c r="J16" s="246" t="n"/>
     </row>
     <row r="17" ht="60" customHeight="1" s="74">
       <c r="A17" s="120" t="n"/>
@@ -5586,7 +5603,7 @@
       <c r="G17" s="120" t="n"/>
       <c r="H17" s="120" t="n"/>
       <c r="I17" s="120" t="n"/>
-      <c r="J17" s="246" t="n"/>
+      <c r="J17" s="247" t="n"/>
     </row>
     <row r="18" ht="60" customHeight="1" s="74">
       <c r="A18" s="118" t="n"/>
@@ -5598,7 +5615,7 @@
       <c r="G18" s="118" t="n"/>
       <c r="H18" s="118" t="n"/>
       <c r="I18" s="118" t="n"/>
-      <c r="J18" s="245" t="n"/>
+      <c r="J18" s="246" t="n"/>
     </row>
     <row r="19" ht="60" customHeight="1" s="74">
       <c r="A19" s="120" t="n"/>
@@ -5610,7 +5627,7 @@
       <c r="G19" s="120" t="n"/>
       <c r="H19" s="120" t="n"/>
       <c r="I19" s="120" t="n"/>
-      <c r="J19" s="246" t="n"/>
+      <c r="J19" s="247" t="n"/>
     </row>
     <row r="20" ht="60" customHeight="1" s="74">
       <c r="A20" s="118" t="n"/>
@@ -5622,7 +5639,7 @@
       <c r="G20" s="118" t="n"/>
       <c r="H20" s="118" t="n"/>
       <c r="I20" s="118" t="n"/>
-      <c r="J20" s="245" t="n"/>
+      <c r="J20" s="246" t="n"/>
     </row>
     <row r="21" ht="60" customHeight="1" s="74">
       <c r="A21" s="120" t="n"/>
@@ -5634,7 +5651,7 @@
       <c r="G21" s="120" t="n"/>
       <c r="H21" s="120" t="n"/>
       <c r="I21" s="120" t="n"/>
-      <c r="J21" s="246" t="n"/>
+      <c r="J21" s="247" t="n"/>
     </row>
     <row r="22" ht="60" customHeight="1" s="74">
       <c r="A22" s="118" t="n"/>
@@ -5646,7 +5663,7 @@
       <c r="G22" s="118" t="n"/>
       <c r="H22" s="118" t="n"/>
       <c r="I22" s="118" t="n"/>
-      <c r="J22" s="245" t="n"/>
+      <c r="J22" s="246" t="n"/>
     </row>
     <row r="23" ht="60" customHeight="1" s="74">
       <c r="A23" s="120" t="n"/>
@@ -5658,7 +5675,7 @@
       <c r="G23" s="120" t="n"/>
       <c r="H23" s="120" t="n"/>
       <c r="I23" s="120" t="n"/>
-      <c r="J23" s="246" t="n"/>
+      <c r="J23" s="247" t="n"/>
     </row>
     <row r="24" ht="60" customHeight="1" s="74">
       <c r="A24" s="118" t="n"/>
@@ -5670,7 +5687,7 @@
       <c r="G24" s="118" t="n"/>
       <c r="H24" s="118" t="n"/>
       <c r="I24" s="118" t="n"/>
-      <c r="J24" s="245" t="n"/>
+      <c r="J24" s="246" t="n"/>
     </row>
     <row r="25" ht="60" customHeight="1" s="74">
       <c r="A25" s="120" t="n"/>
@@ -5682,7 +5699,7 @@
       <c r="G25" s="120" t="n"/>
       <c r="H25" s="120" t="n"/>
       <c r="I25" s="120" t="n"/>
-      <c r="J25" s="246" t="n"/>
+      <c r="J25" s="247" t="n"/>
     </row>
     <row r="26" ht="60" customHeight="1" s="74">
       <c r="A26" s="118" t="n"/>
@@ -5694,7 +5711,7 @@
       <c r="G26" s="118" t="n"/>
       <c r="H26" s="118" t="n"/>
       <c r="I26" s="118" t="n"/>
-      <c r="J26" s="245" t="n"/>
+      <c r="J26" s="246" t="n"/>
     </row>
     <row r="27" ht="60" customHeight="1" s="74">
       <c r="A27" s="120" t="n"/>
@@ -5706,7 +5723,7 @@
       <c r="G27" s="120" t="n"/>
       <c r="H27" s="120" t="n"/>
       <c r="I27" s="120" t="n"/>
-      <c r="J27" s="246" t="n"/>
+      <c r="J27" s="247" t="n"/>
     </row>
     <row r="28" ht="60" customHeight="1" s="74">
       <c r="A28" s="118" t="n"/>
@@ -5718,7 +5735,7 @@
       <c r="G28" s="118" t="n"/>
       <c r="H28" s="118" t="n"/>
       <c r="I28" s="118" t="n"/>
-      <c r="J28" s="245" t="n"/>
+      <c r="J28" s="246" t="n"/>
     </row>
     <row r="29" ht="60" customHeight="1" s="74">
       <c r="A29" s="120" t="n"/>
@@ -5730,7 +5747,7 @@
       <c r="G29" s="120" t="n"/>
       <c r="H29" s="120" t="n"/>
       <c r="I29" s="120" t="n"/>
-      <c r="J29" s="246" t="n"/>
+      <c r="J29" s="247" t="n"/>
     </row>
     <row r="30" ht="60" customHeight="1" s="74">
       <c r="A30" s="118" t="n"/>
@@ -5742,7 +5759,7 @@
       <c r="G30" s="118" t="n"/>
       <c r="H30" s="118" t="n"/>
       <c r="I30" s="118" t="n"/>
-      <c r="J30" s="245" t="n"/>
+      <c r="J30" s="246" t="n"/>
     </row>
     <row r="31">
       <c r="J31" s="115" t="n"/>
@@ -5775,48 +5792,48 @@
       <c r="J33" s="115" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="247" t="inlineStr">
+      <c r="A34" s="248" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B34" s="247" t="inlineStr">
+      <c r="B34" s="248" t="inlineStr">
         <is>
           <t>Restituidor</t>
         </is>
       </c>
-      <c r="C34" s="247" t="inlineStr">
+      <c r="C34" s="248" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D34" s="249" t="inlineStr">
+      <c r="D34" s="250" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
       <c r="E34" s="126" t="n"/>
-      <c r="F34" s="247" t="inlineStr">
+      <c r="F34" s="248" t="inlineStr">
         <is>
           <t>Cheque equivalente</t>
         </is>
       </c>
-      <c r="G34" s="247" t="inlineStr">
+      <c r="G34" s="248" t="inlineStr">
         <is>
           <t>Data do Cheque</t>
         </is>
       </c>
-      <c r="H34" s="247" t="inlineStr">
+      <c r="H34" s="248" t="inlineStr">
         <is>
           <t>Nº do Depósito</t>
         </is>
       </c>
-      <c r="I34" s="247" t="inlineStr">
+      <c r="I34" s="248" t="inlineStr">
         <is>
           <t>Data da Devolução</t>
         </is>
       </c>
-      <c r="J34" s="248" t="inlineStr">
+      <c r="J34" s="249" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -6009,52 +6026,52 @@
       <c r="J8" s="115" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="250" t="inlineStr">
+      <c r="A9" s="251" t="inlineStr">
         <is>
           <t>ITEM</t>
         </is>
       </c>
-      <c r="B9" s="250" t="inlineStr">
+      <c r="B9" s="251" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="C9" s="250" t="inlineStr">
+      <c r="C9" s="251" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D9" s="250" t="inlineStr">
+      <c r="D9" s="251" t="inlineStr">
         <is>
           <t>ESPECIFICAÇÃO DA DESPESA</t>
         </is>
       </c>
-      <c r="E9" s="250" t="inlineStr">
+      <c r="E9" s="251" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="F9" s="250" t="inlineStr">
+      <c r="F9" s="251" t="inlineStr">
         <is>
           <t>Nº DO RECIBO OU EQUIVALENTE</t>
         </is>
       </c>
-      <c r="G9" s="250" t="inlineStr">
+      <c r="G9" s="251" t="inlineStr">
         <is>
           <t>DATA DE EMISSÃO</t>
         </is>
       </c>
-      <c r="H9" s="250" t="inlineStr">
+      <c r="H9" s="251" t="inlineStr">
         <is>
           <t>CHEQUE / ORDEM BANCÁRIA</t>
         </is>
       </c>
-      <c r="I9" s="250" t="inlineStr">
+      <c r="I9" s="251" t="inlineStr">
         <is>
           <t>DATA DE PGTO</t>
         </is>
       </c>
-      <c r="J9" s="251" t="inlineStr">
+      <c r="J9" s="252" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -6070,7 +6087,7 @@
       <c r="G10" s="118" t="n"/>
       <c r="H10" s="118" t="n"/>
       <c r="I10" s="118" t="n"/>
-      <c r="J10" s="252" t="n"/>
+      <c r="J10" s="253" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1" s="74">
       <c r="A11" s="120" t="n"/>
@@ -6082,7 +6099,7 @@
       <c r="G11" s="120" t="n"/>
       <c r="H11" s="120" t="n"/>
       <c r="I11" s="120" t="n"/>
-      <c r="J11" s="253" t="n"/>
+      <c r="J11" s="254" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1" s="74">
       <c r="A12" s="118" t="n"/>
@@ -6094,7 +6111,7 @@
       <c r="G12" s="118" t="n"/>
       <c r="H12" s="118" t="n"/>
       <c r="I12" s="118" t="n"/>
-      <c r="J12" s="252" t="n"/>
+      <c r="J12" s="253" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1" s="74">
       <c r="A13" s="120" t="n"/>
@@ -6106,7 +6123,7 @@
       <c r="G13" s="120" t="n"/>
       <c r="H13" s="120" t="n"/>
       <c r="I13" s="120" t="n"/>
-      <c r="J13" s="253" t="n"/>
+      <c r="J13" s="254" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1" s="74">
       <c r="A14" s="118" t="n"/>
@@ -6118,7 +6135,7 @@
       <c r="G14" s="118" t="n"/>
       <c r="H14" s="118" t="n"/>
       <c r="I14" s="118" t="n"/>
-      <c r="J14" s="252" t="n"/>
+      <c r="J14" s="253" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1" s="74">
       <c r="A15" s="120" t="n"/>
@@ -6130,7 +6147,7 @@
       <c r="G15" s="120" t="n"/>
       <c r="H15" s="120" t="n"/>
       <c r="I15" s="120" t="n"/>
-      <c r="J15" s="253" t="n"/>
+      <c r="J15" s="254" t="n"/>
     </row>
     <row r="16" ht="60" customHeight="1" s="74">
       <c r="A16" s="118" t="n"/>
@@ -6142,7 +6159,7 @@
       <c r="G16" s="118" t="n"/>
       <c r="H16" s="118" t="n"/>
       <c r="I16" s="118" t="n"/>
-      <c r="J16" s="252" t="n"/>
+      <c r="J16" s="253" t="n"/>
     </row>
     <row r="17" ht="60" customHeight="1" s="74">
       <c r="A17" s="120" t="n"/>
@@ -6154,7 +6171,7 @@
       <c r="G17" s="120" t="n"/>
       <c r="H17" s="120" t="n"/>
       <c r="I17" s="120" t="n"/>
-      <c r="J17" s="253" t="n"/>
+      <c r="J17" s="254" t="n"/>
     </row>
     <row r="18" ht="60" customHeight="1" s="74">
       <c r="A18" s="118" t="n"/>
@@ -6166,7 +6183,7 @@
       <c r="G18" s="118" t="n"/>
       <c r="H18" s="118" t="n"/>
       <c r="I18" s="118" t="n"/>
-      <c r="J18" s="252" t="n"/>
+      <c r="J18" s="253" t="n"/>
     </row>
     <row r="19" ht="60" customHeight="1" s="74">
       <c r="A19" s="120" t="n"/>
@@ -6178,7 +6195,7 @@
       <c r="G19" s="120" t="n"/>
       <c r="H19" s="120" t="n"/>
       <c r="I19" s="120" t="n"/>
-      <c r="J19" s="253" t="n"/>
+      <c r="J19" s="254" t="n"/>
     </row>
     <row r="20" ht="60" customHeight="1" s="74">
       <c r="A20" s="118" t="n"/>
@@ -6190,7 +6207,7 @@
       <c r="G20" s="118" t="n"/>
       <c r="H20" s="118" t="n"/>
       <c r="I20" s="118" t="n"/>
-      <c r="J20" s="252" t="n"/>
+      <c r="J20" s="253" t="n"/>
     </row>
     <row r="21" ht="60" customHeight="1" s="74">
       <c r="A21" s="120" t="n"/>
@@ -6202,7 +6219,7 @@
       <c r="G21" s="120" t="n"/>
       <c r="H21" s="120" t="n"/>
       <c r="I21" s="120" t="n"/>
-      <c r="J21" s="253" t="n"/>
+      <c r="J21" s="254" t="n"/>
     </row>
     <row r="22" ht="60" customHeight="1" s="74">
       <c r="A22" s="118" t="n"/>
@@ -6214,7 +6231,7 @@
       <c r="G22" s="118" t="n"/>
       <c r="H22" s="118" t="n"/>
       <c r="I22" s="118" t="n"/>
-      <c r="J22" s="252" t="n"/>
+      <c r="J22" s="253" t="n"/>
     </row>
     <row r="23" ht="60" customHeight="1" s="74">
       <c r="A23" s="120" t="n"/>
@@ -6226,7 +6243,7 @@
       <c r="G23" s="120" t="n"/>
       <c r="H23" s="120" t="n"/>
       <c r="I23" s="120" t="n"/>
-      <c r="J23" s="253" t="n"/>
+      <c r="J23" s="254" t="n"/>
     </row>
     <row r="24" ht="60" customHeight="1" s="74">
       <c r="A24" s="118" t="n"/>
@@ -6238,7 +6255,7 @@
       <c r="G24" s="118" t="n"/>
       <c r="H24" s="118" t="n"/>
       <c r="I24" s="118" t="n"/>
-      <c r="J24" s="252" t="n"/>
+      <c r="J24" s="253" t="n"/>
     </row>
     <row r="25" ht="60" customHeight="1" s="74">
       <c r="A25" s="120" t="n"/>
@@ -6250,7 +6267,7 @@
       <c r="G25" s="120" t="n"/>
       <c r="H25" s="120" t="n"/>
       <c r="I25" s="120" t="n"/>
-      <c r="J25" s="253" t="n"/>
+      <c r="J25" s="254" t="n"/>
     </row>
     <row r="26" ht="60" customHeight="1" s="74">
       <c r="A26" s="118" t="n"/>
@@ -6262,7 +6279,7 @@
       <c r="G26" s="118" t="n"/>
       <c r="H26" s="118" t="n"/>
       <c r="I26" s="118" t="n"/>
-      <c r="J26" s="252" t="n"/>
+      <c r="J26" s="253" t="n"/>
     </row>
     <row r="27" ht="60" customHeight="1" s="74">
       <c r="A27" s="120" t="n"/>
@@ -6274,7 +6291,7 @@
       <c r="G27" s="120" t="n"/>
       <c r="H27" s="120" t="n"/>
       <c r="I27" s="120" t="n"/>
-      <c r="J27" s="253" t="n"/>
+      <c r="J27" s="254" t="n"/>
     </row>
     <row r="28" ht="60" customHeight="1" s="74">
       <c r="A28" s="118" t="n"/>
@@ -6286,7 +6303,7 @@
       <c r="G28" s="118" t="n"/>
       <c r="H28" s="118" t="n"/>
       <c r="I28" s="118" t="n"/>
-      <c r="J28" s="252" t="n"/>
+      <c r="J28" s="253" t="n"/>
     </row>
     <row r="29" ht="60" customHeight="1" s="74">
       <c r="A29" s="120" t="n"/>
@@ -6298,7 +6315,7 @@
       <c r="G29" s="120" t="n"/>
       <c r="H29" s="120" t="n"/>
       <c r="I29" s="120" t="n"/>
-      <c r="J29" s="253" t="n"/>
+      <c r="J29" s="254" t="n"/>
     </row>
     <row r="30" ht="60" customHeight="1" s="74">
       <c r="A30" s="118" t="n"/>
@@ -6310,7 +6327,7 @@
       <c r="G30" s="118" t="n"/>
       <c r="H30" s="118" t="n"/>
       <c r="I30" s="118" t="n"/>
-      <c r="J30" s="252" t="n"/>
+      <c r="J30" s="253" t="n"/>
     </row>
     <row r="31">
       <c r="J31" s="115" t="n"/>
@@ -6343,48 +6360,48 @@
       <c r="J33" s="115" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="254" t="inlineStr">
+      <c r="A34" s="255" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B34" s="254" t="inlineStr">
+      <c r="B34" s="255" t="inlineStr">
         <is>
           <t>Restituidor</t>
         </is>
       </c>
-      <c r="C34" s="254" t="inlineStr">
+      <c r="C34" s="255" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D34" s="256" t="inlineStr">
+      <c r="D34" s="257" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
       <c r="E34" s="126" t="n"/>
-      <c r="F34" s="254" t="inlineStr">
+      <c r="F34" s="255" t="inlineStr">
         <is>
           <t>Cheque equivalente</t>
         </is>
       </c>
-      <c r="G34" s="254" t="inlineStr">
+      <c r="G34" s="255" t="inlineStr">
         <is>
           <t>Data do Cheque</t>
         </is>
       </c>
-      <c r="H34" s="254" t="inlineStr">
+      <c r="H34" s="255" t="inlineStr">
         <is>
           <t>Nº do Depósito</t>
         </is>
       </c>
-      <c r="I34" s="254" t="inlineStr">
+      <c r="I34" s="255" t="inlineStr">
         <is>
           <t>Data da Devolução</t>
         </is>
       </c>
-      <c r="J34" s="255" t="inlineStr">
+      <c r="J34" s="256" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -6577,52 +6594,52 @@
       <c r="J8" s="115" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="257" t="inlineStr">
+      <c r="A9" s="258" t="inlineStr">
         <is>
           <t>ITEM</t>
         </is>
       </c>
-      <c r="B9" s="257" t="inlineStr">
+      <c r="B9" s="258" t="inlineStr">
         <is>
           <t>NOME</t>
         </is>
       </c>
-      <c r="C9" s="257" t="inlineStr">
+      <c r="C9" s="258" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D9" s="257" t="inlineStr">
+      <c r="D9" s="258" t="inlineStr">
         <is>
           <t>ESPECIFICAÇÃO DA DESPESA</t>
         </is>
       </c>
-      <c r="E9" s="257" t="inlineStr">
+      <c r="E9" s="258" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="F9" s="257" t="inlineStr">
+      <c r="F9" s="258" t="inlineStr">
         <is>
           <t>Nº DO RECIBO OU EQUIVALENTE</t>
         </is>
       </c>
-      <c r="G9" s="257" t="inlineStr">
+      <c r="G9" s="258" t="inlineStr">
         <is>
           <t>DATA DE EMISSÃO</t>
         </is>
       </c>
-      <c r="H9" s="257" t="inlineStr">
+      <c r="H9" s="258" t="inlineStr">
         <is>
           <t>CHEQUE / ORDEM BANCÁRIA</t>
         </is>
       </c>
-      <c r="I9" s="257" t="inlineStr">
+      <c r="I9" s="258" t="inlineStr">
         <is>
           <t>DATA DE PGTO</t>
         </is>
       </c>
-      <c r="J9" s="258" t="inlineStr">
+      <c r="J9" s="259" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -6638,7 +6655,7 @@
       <c r="G10" s="118" t="n"/>
       <c r="H10" s="118" t="n"/>
       <c r="I10" s="118" t="n"/>
-      <c r="J10" s="259" t="n"/>
+      <c r="J10" s="260" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1" s="74">
       <c r="A11" s="120" t="n"/>
@@ -6650,7 +6667,7 @@
       <c r="G11" s="120" t="n"/>
       <c r="H11" s="120" t="n"/>
       <c r="I11" s="120" t="n"/>
-      <c r="J11" s="260" t="n"/>
+      <c r="J11" s="261" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1" s="74">
       <c r="A12" s="118" t="n"/>
@@ -6662,7 +6679,7 @@
       <c r="G12" s="118" t="n"/>
       <c r="H12" s="118" t="n"/>
       <c r="I12" s="118" t="n"/>
-      <c r="J12" s="259" t="n"/>
+      <c r="J12" s="260" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1" s="74">
       <c r="A13" s="120" t="n"/>
@@ -6674,7 +6691,7 @@
       <c r="G13" s="120" t="n"/>
       <c r="H13" s="120" t="n"/>
       <c r="I13" s="120" t="n"/>
-      <c r="J13" s="260" t="n"/>
+      <c r="J13" s="261" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1" s="74">
       <c r="A14" s="118" t="n"/>
@@ -6686,7 +6703,7 @@
       <c r="G14" s="118" t="n"/>
       <c r="H14" s="118" t="n"/>
       <c r="I14" s="118" t="n"/>
-      <c r="J14" s="259" t="n"/>
+      <c r="J14" s="260" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1" s="74">
       <c r="A15" s="120" t="n"/>
@@ -6698,7 +6715,7 @@
       <c r="G15" s="120" t="n"/>
       <c r="H15" s="120" t="n"/>
       <c r="I15" s="120" t="n"/>
-      <c r="J15" s="260" t="n"/>
+      <c r="J15" s="261" t="n"/>
     </row>
     <row r="16" ht="60" customHeight="1" s="74">
       <c r="A16" s="118" t="n"/>
@@ -6710,7 +6727,7 @@
       <c r="G16" s="118" t="n"/>
       <c r="H16" s="118" t="n"/>
       <c r="I16" s="118" t="n"/>
-      <c r="J16" s="259" t="n"/>
+      <c r="J16" s="260" t="n"/>
     </row>
     <row r="17" ht="60" customHeight="1" s="74">
       <c r="A17" s="120" t="n"/>
@@ -6722,7 +6739,7 @@
       <c r="G17" s="120" t="n"/>
       <c r="H17" s="120" t="n"/>
       <c r="I17" s="120" t="n"/>
-      <c r="J17" s="260" t="n"/>
+      <c r="J17" s="261" t="n"/>
     </row>
     <row r="18" ht="60" customHeight="1" s="74">
       <c r="A18" s="118" t="n"/>
@@ -6734,7 +6751,7 @@
       <c r="G18" s="118" t="n"/>
       <c r="H18" s="118" t="n"/>
       <c r="I18" s="118" t="n"/>
-      <c r="J18" s="259" t="n"/>
+      <c r="J18" s="260" t="n"/>
     </row>
     <row r="19" ht="60" customHeight="1" s="74">
       <c r="A19" s="120" t="n"/>
@@ -6746,7 +6763,7 @@
       <c r="G19" s="120" t="n"/>
       <c r="H19" s="120" t="n"/>
       <c r="I19" s="120" t="n"/>
-      <c r="J19" s="260" t="n"/>
+      <c r="J19" s="261" t="n"/>
     </row>
     <row r="20" ht="60" customHeight="1" s="74">
       <c r="A20" s="118" t="n"/>
@@ -6758,7 +6775,7 @@
       <c r="G20" s="118" t="n"/>
       <c r="H20" s="118" t="n"/>
       <c r="I20" s="118" t="n"/>
-      <c r="J20" s="259" t="n"/>
+      <c r="J20" s="260" t="n"/>
     </row>
     <row r="21" ht="60" customHeight="1" s="74">
       <c r="A21" s="120" t="n"/>
@@ -6770,7 +6787,7 @@
       <c r="G21" s="120" t="n"/>
       <c r="H21" s="120" t="n"/>
       <c r="I21" s="120" t="n"/>
-      <c r="J21" s="260" t="n"/>
+      <c r="J21" s="261" t="n"/>
     </row>
     <row r="22" ht="60" customHeight="1" s="74">
       <c r="A22" s="118" t="n"/>
@@ -6782,7 +6799,7 @@
       <c r="G22" s="118" t="n"/>
       <c r="H22" s="118" t="n"/>
       <c r="I22" s="118" t="n"/>
-      <c r="J22" s="259" t="n"/>
+      <c r="J22" s="260" t="n"/>
     </row>
     <row r="23" ht="60" customHeight="1" s="74">
       <c r="A23" s="120" t="n"/>
@@ -6794,7 +6811,7 @@
       <c r="G23" s="120" t="n"/>
       <c r="H23" s="120" t="n"/>
       <c r="I23" s="120" t="n"/>
-      <c r="J23" s="260" t="n"/>
+      <c r="J23" s="261" t="n"/>
     </row>
     <row r="24" ht="60" customHeight="1" s="74">
       <c r="A24" s="118" t="n"/>
@@ -6806,7 +6823,7 @@
       <c r="G24" s="118" t="n"/>
       <c r="H24" s="118" t="n"/>
       <c r="I24" s="118" t="n"/>
-      <c r="J24" s="259" t="n"/>
+      <c r="J24" s="260" t="n"/>
     </row>
     <row r="25" ht="60" customHeight="1" s="74">
       <c r="A25" s="120" t="n"/>
@@ -6818,7 +6835,7 @@
       <c r="G25" s="120" t="n"/>
       <c r="H25" s="120" t="n"/>
       <c r="I25" s="120" t="n"/>
-      <c r="J25" s="260" t="n"/>
+      <c r="J25" s="261" t="n"/>
     </row>
     <row r="26" ht="60" customHeight="1" s="74">
       <c r="A26" s="118" t="n"/>
@@ -6830,7 +6847,7 @@
       <c r="G26" s="118" t="n"/>
       <c r="H26" s="118" t="n"/>
       <c r="I26" s="118" t="n"/>
-      <c r="J26" s="259" t="n"/>
+      <c r="J26" s="260" t="n"/>
     </row>
     <row r="27" ht="60" customHeight="1" s="74">
       <c r="A27" s="120" t="n"/>
@@ -6842,7 +6859,7 @@
       <c r="G27" s="120" t="n"/>
       <c r="H27" s="120" t="n"/>
       <c r="I27" s="120" t="n"/>
-      <c r="J27" s="260" t="n"/>
+      <c r="J27" s="261" t="n"/>
     </row>
     <row r="28" ht="60" customHeight="1" s="74">
       <c r="A28" s="118" t="n"/>
@@ -6854,7 +6871,7 @@
       <c r="G28" s="118" t="n"/>
       <c r="H28" s="118" t="n"/>
       <c r="I28" s="118" t="n"/>
-      <c r="J28" s="259" t="n"/>
+      <c r="J28" s="260" t="n"/>
     </row>
     <row r="29" ht="60" customHeight="1" s="74">
       <c r="A29" s="120" t="n"/>
@@ -6866,7 +6883,7 @@
       <c r="G29" s="120" t="n"/>
       <c r="H29" s="120" t="n"/>
       <c r="I29" s="120" t="n"/>
-      <c r="J29" s="260" t="n"/>
+      <c r="J29" s="261" t="n"/>
     </row>
     <row r="30" ht="60" customHeight="1" s="74">
       <c r="A30" s="118" t="n"/>
@@ -6878,7 +6895,7 @@
       <c r="G30" s="118" t="n"/>
       <c r="H30" s="118" t="n"/>
       <c r="I30" s="118" t="n"/>
-      <c r="J30" s="259" t="n"/>
+      <c r="J30" s="260" t="n"/>
     </row>
     <row r="31">
       <c r="J31" s="115" t="n"/>
@@ -6911,48 +6928,48 @@
       <c r="J33" s="115" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="261" t="inlineStr">
+      <c r="A34" s="262" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B34" s="261" t="inlineStr">
+      <c r="B34" s="262" t="inlineStr">
         <is>
           <t>Restituidor</t>
         </is>
       </c>
-      <c r="C34" s="261" t="inlineStr">
+      <c r="C34" s="262" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D34" s="263" t="inlineStr">
+      <c r="D34" s="264" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
       <c r="E34" s="126" t="n"/>
-      <c r="F34" s="261" t="inlineStr">
+      <c r="F34" s="262" t="inlineStr">
         <is>
           <t>Cheque equivalente</t>
         </is>
       </c>
-      <c r="G34" s="261" t="inlineStr">
+      <c r="G34" s="262" t="inlineStr">
         <is>
           <t>Data do Cheque</t>
         </is>
       </c>
-      <c r="H34" s="261" t="inlineStr">
+      <c r="H34" s="262" t="inlineStr">
         <is>
           <t>Nº do Depósito</t>
         </is>
       </c>
-      <c r="I34" s="261" t="inlineStr">
+      <c r="I34" s="262" t="inlineStr">
         <is>
           <t>Data da Devolução</t>
         </is>
       </c>
-      <c r="J34" s="262" t="inlineStr">
+      <c r="J34" s="263" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -7101,35 +7118,35 @@
       <c r="D2" s="113" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="197">
+      <c r="A3" s="198">
         <f>'Receita x Despesa'!A3:J3</f>
         <v/>
       </c>
       <c r="D3" s="113" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="197">
+      <c r="A4" s="198">
         <f>'Receita x Despesa'!A4:J4</f>
         <v/>
       </c>
       <c r="D4" s="113" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="197">
+      <c r="A5" s="198">
         <f>'Receita x Despesa'!A5:J5</f>
         <v/>
       </c>
       <c r="D5" s="113" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="197">
+      <c r="A6" s="198">
         <f>'Receita x Despesa'!A6:J6</f>
         <v/>
       </c>
       <c r="D6" s="113" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="197">
+      <c r="A7" s="198">
         <f>'Receita x Despesa'!A7:J7</f>
         <v/>
       </c>
@@ -7139,22 +7156,22 @@
       <c r="D8" s="115" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="264" t="inlineStr">
+      <c r="A9" s="265" t="inlineStr">
         <is>
           <t>Data de Entrada</t>
         </is>
       </c>
-      <c r="B9" s="264" t="inlineStr">
+      <c r="B9" s="265" t="inlineStr">
         <is>
           <t>Cod.BB_Histórico</t>
         </is>
       </c>
-      <c r="C9" s="264" t="inlineStr">
+      <c r="C9" s="265" t="inlineStr">
         <is>
           <t>Documento</t>
         </is>
       </c>
-      <c r="D9" s="265" t="inlineStr">
+      <c r="D9" s="266" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -7164,127 +7181,127 @@
       <c r="A10" s="118" t="n"/>
       <c r="B10" s="118" t="n"/>
       <c r="C10" s="118" t="n"/>
-      <c r="D10" s="266" t="n"/>
+      <c r="D10" s="267" t="n"/>
     </row>
     <row r="11" ht="35" customHeight="1" s="74">
       <c r="A11" s="120" t="n"/>
       <c r="B11" s="120" t="n"/>
       <c r="C11" s="120" t="n"/>
-      <c r="D11" s="267" t="n"/>
+      <c r="D11" s="268" t="n"/>
     </row>
     <row r="12" ht="35" customHeight="1" s="74">
       <c r="A12" s="118" t="n"/>
       <c r="B12" s="118" t="n"/>
       <c r="C12" s="118" t="n"/>
-      <c r="D12" s="266" t="n"/>
+      <c r="D12" s="267" t="n"/>
     </row>
     <row r="13" ht="35" customHeight="1" s="74">
       <c r="A13" s="120" t="n"/>
       <c r="B13" s="120" t="n"/>
       <c r="C13" s="120" t="n"/>
-      <c r="D13" s="267" t="n"/>
+      <c r="D13" s="268" t="n"/>
     </row>
     <row r="14" ht="35" customHeight="1" s="74">
       <c r="A14" s="118" t="n"/>
       <c r="B14" s="118" t="n"/>
       <c r="C14" s="118" t="n"/>
-      <c r="D14" s="266" t="n"/>
+      <c r="D14" s="267" t="n"/>
     </row>
     <row r="15" ht="35" customHeight="1" s="74">
       <c r="A15" s="120" t="n"/>
       <c r="B15" s="120" t="n"/>
       <c r="C15" s="120" t="n"/>
-      <c r="D15" s="267" t="n"/>
+      <c r="D15" s="268" t="n"/>
     </row>
     <row r="16" ht="35" customHeight="1" s="74">
       <c r="A16" s="118" t="n"/>
       <c r="B16" s="118" t="n"/>
       <c r="C16" s="118" t="n"/>
-      <c r="D16" s="266" t="n"/>
+      <c r="D16" s="267" t="n"/>
     </row>
     <row r="17" ht="35" customHeight="1" s="74">
       <c r="A17" s="120" t="n"/>
       <c r="B17" s="120" t="n"/>
       <c r="C17" s="120" t="n"/>
-      <c r="D17" s="267" t="n"/>
+      <c r="D17" s="268" t="n"/>
     </row>
     <row r="18" ht="35" customHeight="1" s="74">
       <c r="A18" s="118" t="n"/>
       <c r="B18" s="118" t="n"/>
       <c r="C18" s="118" t="n"/>
-      <c r="D18" s="266" t="n"/>
+      <c r="D18" s="267" t="n"/>
     </row>
     <row r="19" ht="35" customHeight="1" s="74">
       <c r="A19" s="120" t="n"/>
       <c r="B19" s="120" t="n"/>
       <c r="C19" s="120" t="n"/>
-      <c r="D19" s="267" t="n"/>
+      <c r="D19" s="268" t="n"/>
     </row>
     <row r="20" ht="35" customHeight="1" s="74">
       <c r="A20" s="118" t="n"/>
       <c r="B20" s="118" t="n"/>
       <c r="C20" s="118" t="n"/>
-      <c r="D20" s="266" t="n"/>
+      <c r="D20" s="267" t="n"/>
     </row>
     <row r="21" ht="35" customHeight="1" s="74">
       <c r="A21" s="120" t="n"/>
       <c r="B21" s="120" t="n"/>
       <c r="C21" s="120" t="n"/>
-      <c r="D21" s="267" t="n"/>
+      <c r="D21" s="268" t="n"/>
     </row>
     <row r="22" ht="35" customHeight="1" s="74">
       <c r="A22" s="118" t="n"/>
       <c r="B22" s="118" t="n"/>
       <c r="C22" s="118" t="n"/>
-      <c r="D22" s="266" t="n"/>
+      <c r="D22" s="267" t="n"/>
     </row>
     <row r="23" ht="35" customHeight="1" s="74">
       <c r="A23" s="120" t="n"/>
       <c r="B23" s="120" t="n"/>
       <c r="C23" s="120" t="n"/>
-      <c r="D23" s="267" t="n"/>
+      <c r="D23" s="268" t="n"/>
     </row>
     <row r="24" ht="35" customHeight="1" s="74">
       <c r="A24" s="118" t="n"/>
       <c r="B24" s="118" t="n"/>
       <c r="C24" s="118" t="n"/>
-      <c r="D24" s="266" t="n"/>
+      <c r="D24" s="267" t="n"/>
     </row>
     <row r="25" ht="35" customHeight="1" s="74">
       <c r="A25" s="120" t="n"/>
       <c r="B25" s="120" t="n"/>
       <c r="C25" s="120" t="n"/>
-      <c r="D25" s="267" t="n"/>
+      <c r="D25" s="268" t="n"/>
     </row>
     <row r="26" ht="35" customHeight="1" s="74">
       <c r="A26" s="118" t="n"/>
       <c r="B26" s="118" t="n"/>
       <c r="C26" s="118" t="n"/>
-      <c r="D26" s="266" t="n"/>
+      <c r="D26" s="267" t="n"/>
     </row>
     <row r="27" ht="35" customHeight="1" s="74">
       <c r="A27" s="120" t="n"/>
       <c r="B27" s="120" t="n"/>
       <c r="C27" s="120" t="n"/>
-      <c r="D27" s="267" t="n"/>
+      <c r="D27" s="268" t="n"/>
     </row>
     <row r="28" ht="35" customHeight="1" s="74">
       <c r="A28" s="118" t="n"/>
       <c r="B28" s="118" t="n"/>
       <c r="C28" s="118" t="n"/>
-      <c r="D28" s="266" t="n"/>
+      <c r="D28" s="267" t="n"/>
     </row>
     <row r="29" ht="35" customHeight="1" s="74">
       <c r="A29" s="120" t="n"/>
       <c r="B29" s="120" t="n"/>
       <c r="C29" s="120" t="n"/>
-      <c r="D29" s="267" t="n"/>
+      <c r="D29" s="268" t="n"/>
     </row>
     <row r="30" ht="35" customHeight="1" s="74">
       <c r="A30" s="118" t="n"/>
       <c r="B30" s="118" t="n"/>
       <c r="C30" s="118" t="n"/>
-      <c r="D30" s="266" t="n"/>
+      <c r="D30" s="267" t="n"/>
     </row>
     <row r="31">
       <c r="D31" s="115" t="n"/>
@@ -7311,22 +7328,22 @@
       <c r="D33" s="115" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="268" t="inlineStr">
+      <c r="A34" s="269" t="inlineStr">
         <is>
           <t>Data de Entrada</t>
         </is>
       </c>
-      <c r="B34" s="268" t="inlineStr">
+      <c r="B34" s="269" t="inlineStr">
         <is>
           <t>Cod.BB_Histórico</t>
         </is>
       </c>
-      <c r="C34" s="268" t="inlineStr">
+      <c r="C34" s="269" t="inlineStr">
         <is>
           <t>Documento</t>
         </is>
       </c>
-      <c r="D34" s="269" t="inlineStr">
+      <c r="D34" s="270" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -7399,7 +7416,7 @@
       <c r="A41" s="136" t="n"/>
       <c r="B41" s="136" t="n"/>
       <c r="C41" s="136" t="n"/>
-      <c r="D41" s="136" t="n"/>
+      <c r="D41" s="137" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7462,7 +7479,7 @@
       <c r="J2" s="113" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="270" t="inlineStr">
+      <c r="A3" s="271" t="inlineStr">
         <is>
           <t>(ADQUIRIDOS, PRODUZIDOS OU CONSTRUÍDOS COM RECURSOS)</t>
         </is>
@@ -7508,79 +7525,79 @@
       <c r="J9" s="115" t="n"/>
     </row>
     <row r="10" ht="2" customHeight="1" s="74">
-      <c r="J10" s="271" t="n"/>
+      <c r="J10" s="272" t="n"/>
     </row>
     <row r="11" ht="35" customHeight="1" s="74">
-      <c r="A11" s="272" t="inlineStr">
+      <c r="A11" s="273" t="inlineStr">
         <is>
           <t>Nº DO ITEM</t>
         </is>
       </c>
-      <c r="B11" s="272" t="inlineStr">
+      <c r="B11" s="273" t="inlineStr">
         <is>
           <t>DESCRIÇÃO DO BEM</t>
         </is>
       </c>
-      <c r="C11" s="272" t="inlineStr">
+      <c r="C11" s="273" t="inlineStr">
         <is>
           <t>NÚMERO PATRIMONIAL DO BEM</t>
         </is>
       </c>
-      <c r="D11" s="272" t="inlineStr">
+      <c r="D11" s="273" t="inlineStr">
         <is>
           <t>DOCUMENTAÇÃO FISCAL</t>
         </is>
       </c>
-      <c r="E11" s="273" t="n"/>
-      <c r="F11" s="272" t="inlineStr">
+      <c r="E11" s="274" t="n"/>
+      <c r="F11" s="273" t="inlineStr">
         <is>
           <t>LOCALIZAÇÃO</t>
         </is>
       </c>
-      <c r="G11" s="272" t="inlineStr">
+      <c r="G11" s="273" t="inlineStr">
         <is>
           <t>QTD.</t>
         </is>
       </c>
-      <c r="H11" s="272" t="inlineStr">
+      <c r="H11" s="273" t="inlineStr">
         <is>
           <t>VALOR (R$)</t>
         </is>
       </c>
-      <c r="I11" s="273" t="n"/>
-      <c r="J11" s="274" t="inlineStr">
+      <c r="I11" s="274" t="n"/>
+      <c r="J11" s="275" t="inlineStr">
         <is>
           <t>RESPONSÁVEL PELA GUARDA DO BEM</t>
         </is>
       </c>
     </row>
     <row r="12" ht="35" customHeight="1" s="74">
-      <c r="A12" s="275" t="n"/>
-      <c r="B12" s="275" t="n"/>
-      <c r="C12" s="275" t="n"/>
-      <c r="D12" s="276" t="inlineStr">
+      <c r="A12" s="276" t="n"/>
+      <c r="B12" s="276" t="n"/>
+      <c r="C12" s="276" t="n"/>
+      <c r="D12" s="277" t="inlineStr">
         <is>
           <t>DATA</t>
         </is>
       </c>
-      <c r="E12" s="276" t="inlineStr">
+      <c r="E12" s="277" t="inlineStr">
         <is>
           <t xml:space="preserve">Nº </t>
         </is>
       </c>
-      <c r="F12" s="275" t="n"/>
-      <c r="G12" s="275" t="n"/>
-      <c r="H12" s="276" t="inlineStr">
+      <c r="F12" s="276" t="n"/>
+      <c r="G12" s="276" t="n"/>
+      <c r="H12" s="277" t="inlineStr">
         <is>
           <t>Unitário</t>
         </is>
       </c>
-      <c r="I12" s="276" t="inlineStr">
+      <c r="I12" s="277" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J12" s="279" t="n"/>
+      <c r="J12" s="280" t="n"/>
     </row>
     <row r="13" ht="35" customHeight="1" s="74">
       <c r="A13" s="120" t="n"/>
@@ -7592,7 +7609,7 @@
       <c r="G13" s="120" t="n"/>
       <c r="H13" s="120" t="n"/>
       <c r="I13" s="120" t="n"/>
-      <c r="J13" s="277" t="n"/>
+      <c r="J13" s="278" t="n"/>
     </row>
     <row r="14" ht="35" customHeight="1" s="74">
       <c r="A14" s="118" t="n"/>
@@ -7604,7 +7621,7 @@
       <c r="G14" s="118" t="n"/>
       <c r="H14" s="118" t="n"/>
       <c r="I14" s="118" t="n"/>
-      <c r="J14" s="278" t="n"/>
+      <c r="J14" s="279" t="n"/>
     </row>
     <row r="15" ht="35" customHeight="1" s="74">
       <c r="A15" s="120" t="n"/>
@@ -7616,7 +7633,7 @@
       <c r="G15" s="120" t="n"/>
       <c r="H15" s="120" t="n"/>
       <c r="I15" s="120" t="n"/>
-      <c r="J15" s="277" t="n"/>
+      <c r="J15" s="278" t="n"/>
     </row>
     <row r="16" ht="35" customHeight="1" s="74">
       <c r="A16" s="118" t="n"/>
@@ -7628,7 +7645,7 @@
       <c r="G16" s="118" t="n"/>
       <c r="H16" s="118" t="n"/>
       <c r="I16" s="118" t="n"/>
-      <c r="J16" s="278" t="n"/>
+      <c r="J16" s="279" t="n"/>
     </row>
     <row r="17" ht="35" customHeight="1" s="74">
       <c r="A17" s="120" t="n"/>
@@ -7640,7 +7657,7 @@
       <c r="G17" s="120" t="n"/>
       <c r="H17" s="120" t="n"/>
       <c r="I17" s="120" t="n"/>
-      <c r="J17" s="277" t="n"/>
+      <c r="J17" s="278" t="n"/>
     </row>
     <row r="18" ht="35" customHeight="1" s="74">
       <c r="A18" s="118" t="n"/>
@@ -7652,7 +7669,7 @@
       <c r="G18" s="118" t="n"/>
       <c r="H18" s="118" t="n"/>
       <c r="I18" s="118" t="n"/>
-      <c r="J18" s="278" t="n"/>
+      <c r="J18" s="279" t="n"/>
     </row>
     <row r="19" ht="35" customHeight="1" s="74">
       <c r="A19" s="120" t="n"/>
@@ -7664,7 +7681,7 @@
       <c r="G19" s="120" t="n"/>
       <c r="H19" s="120" t="n"/>
       <c r="I19" s="120" t="n"/>
-      <c r="J19" s="277" t="n"/>
+      <c r="J19" s="278" t="n"/>
     </row>
     <row r="20" ht="35" customHeight="1" s="74">
       <c r="A20" s="118" t="n"/>
@@ -7676,7 +7693,7 @@
       <c r="G20" s="118" t="n"/>
       <c r="H20" s="118" t="n"/>
       <c r="I20" s="118" t="n"/>
-      <c r="J20" s="278" t="n"/>
+      <c r="J20" s="279" t="n"/>
     </row>
     <row r="21" ht="35" customHeight="1" s="74">
       <c r="A21" s="120" t="n"/>
@@ -7688,7 +7705,7 @@
       <c r="G21" s="120" t="n"/>
       <c r="H21" s="120" t="n"/>
       <c r="I21" s="120" t="n"/>
-      <c r="J21" s="277" t="n"/>
+      <c r="J21" s="278" t="n"/>
     </row>
     <row r="22">
       <c r="J22" s="115" t="n"/>
@@ -7870,7 +7887,7 @@
     <row r="3" ht="18" customHeight="1" s="74" thickBot="1">
       <c r="A3" s="83" t="inlineStr">
         <is>
-          <t>Título do Projeto: FUB/FD - Mestrado Profissional em Direito, Regulação e Políticas Públicas</t>
+          <t>Título do Projeto: FUB/UnB Idiomas - "Apoio a Gestão Administrativa e Financeira do Programa Permanente de Extensão UnB Idiomas."</t>
         </is>
       </c>
       <c r="B3" s="76" t="n"/>
@@ -7887,7 +7904,7 @@
     <row r="4" ht="18" customHeight="1" s="74" thickBot="1">
       <c r="A4" s="84" t="inlineStr">
         <is>
-          <t>Executora: FUNDAÇÃO UNIVERSIDADE DE BRASÍLIA -UnB</t>
+          <t>Executora: COMUNIDADE EM GERAL</t>
         </is>
       </c>
       <c r="B4" s="85" t="n"/>
@@ -7921,7 +7938,7 @@
     <row r="6" ht="17.25" customHeight="1" s="74">
       <c r="A6" s="83" t="inlineStr">
         <is>
-          <t>Período de Execução Físico-Financeiro: 23/12/2019  a 31/01/2023</t>
+          <t>Período de Execução Físico-Financeiro: 09/11/2017  a 09/01/2024</t>
         </is>
       </c>
       <c r="B6" s="76" t="n"/>
@@ -7938,7 +7955,7 @@
     <row r="7" ht="17.25" customHeight="1" s="74">
       <c r="A7" s="94" t="inlineStr">
         <is>
-          <t>Período que abrange esta prestação: 30/11/2023 a 06/12/2023</t>
+          <t>Período que abrange esta prestação: 07/10/2023 a 06/12/2023</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8611,7 @@
       <c r="G45" s="111" t="n"/>
       <c r="H45" s="108" t="inlineStr">
         <is>
-          <t>DEBORA BONAT</t>
+          <t>EDNA GISELA PIZARRO</t>
         </is>
       </c>
       <c r="J45" s="110" t="n"/>
@@ -8631,7 +8648,7 @@
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="89" t="inlineStr">
         <is>
-          <t>877.397.399-87</t>
+          <t>517.181.890-87</t>
         </is>
       </c>
       <c r="J47" s="1" t="n"/>
@@ -8907,7 +8924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9029,193 +9046,377 @@
       </c>
     </row>
     <row r="10" ht="60" customHeight="1" s="74">
-      <c r="A10" s="118" t="n"/>
+      <c r="A10" s="118" t="n">
+        <v>1</v>
+      </c>
       <c r="B10" s="118" t="n"/>
       <c r="C10" s="118" t="n"/>
-      <c r="D10" s="118" t="n"/>
-      <c r="E10" s="118" t="n"/>
+      <c r="D10" s="118" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="E10" s="118" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento referente ao mês 09/2023 - INSS</t>
+        </is>
+      </c>
       <c r="F10" s="118" t="n"/>
       <c r="G10" s="118" t="n"/>
       <c r="H10" s="118" t="n"/>
-      <c r="I10" s="118" t="n"/>
-      <c r="J10" s="138" t="n"/>
+      <c r="I10" s="118" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="J10" s="138" t="n">
+        <v>91594.75999999999</v>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1" s="74">
-      <c r="A11" s="120" t="n"/>
+      <c r="A11" s="120" t="n">
+        <v>2</v>
+      </c>
       <c r="B11" s="120" t="n"/>
       <c r="C11" s="120" t="n"/>
-      <c r="D11" s="120" t="n"/>
-      <c r="E11" s="120" t="n"/>
+      <c r="D11" s="120" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="E11" s="120" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento referente ao mês 09/2023 - Rescisão</t>
+        </is>
+      </c>
       <c r="F11" s="120" t="n"/>
       <c r="G11" s="120" t="n"/>
       <c r="H11" s="120" t="n"/>
-      <c r="I11" s="120" t="n"/>
-      <c r="J11" s="139" t="n"/>
-    </row>
-    <row r="12">
-      <c r="J12" s="115" t="n"/>
-    </row>
-    <row r="13" ht="56.25" customHeight="1" s="74">
-      <c r="A13" s="122" t="inlineStr">
+      <c r="I11" s="120" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+      <c r="J11" s="139" t="n">
+        <v>5813.02</v>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1" s="74">
+      <c r="A12" s="118" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="118" t="n"/>
+      <c r="C12" s="118" t="n"/>
+      <c r="D12" s="118" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="E12" s="118" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento referente ao mês 09/2023 - PIS</t>
+        </is>
+      </c>
+      <c r="F12" s="118" t="n"/>
+      <c r="G12" s="118" t="n"/>
+      <c r="H12" s="118" t="n"/>
+      <c r="I12" s="118" t="inlineStr">
+        <is>
+          <t>24/10/2023</t>
+        </is>
+      </c>
+      <c r="J12" s="138" t="n">
+        <v>2585.98</v>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1" s="74">
+      <c r="A13" s="120" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="120" t="n"/>
+      <c r="C13" s="120" t="n"/>
+      <c r="D13" s="120" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="E13" s="120" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento referente ao mês 09/2023 - IRRF FOPAG - Férias / Rescisão e IRRF 13º - Comp. 08 e 10/2023</t>
+        </is>
+      </c>
+      <c r="F13" s="120" t="n"/>
+      <c r="G13" s="120" t="n"/>
+      <c r="H13" s="120" t="n"/>
+      <c r="I13" s="120" t="inlineStr">
+        <is>
+          <t>17/10/2023</t>
+        </is>
+      </c>
+      <c r="J13" s="139" t="n">
+        <v>7842.34</v>
+      </c>
+    </row>
+    <row r="14" ht="60" customHeight="1" s="74">
+      <c r="A14" s="118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="118" t="n"/>
+      <c r="C14" s="118" t="n"/>
+      <c r="D14" s="118" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="E14" s="118" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento referente ao mês 09/2023 - Férias</t>
+        </is>
+      </c>
+      <c r="F14" s="118" t="n"/>
+      <c r="G14" s="118" t="n"/>
+      <c r="H14" s="118" t="n"/>
+      <c r="I14" s="118" t="inlineStr">
+        <is>
+          <t>25/10/2023</t>
+        </is>
+      </c>
+      <c r="J14" s="138" t="n">
+        <v>6294.28</v>
+      </c>
+    </row>
+    <row r="15" ht="60" customHeight="1" s="74">
+      <c r="A15" s="120" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="120" t="n"/>
+      <c r="C15" s="120" t="n"/>
+      <c r="D15" s="120" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="E15" s="120" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento referente ao mês 10/2023 - Amil Saúde</t>
+        </is>
+      </c>
+      <c r="F15" s="120" t="n"/>
+      <c r="G15" s="120" t="n"/>
+      <c r="H15" s="120" t="n"/>
+      <c r="I15" s="120" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="J15" s="139" t="n">
+        <v>23558.72</v>
+      </c>
+    </row>
+    <row r="16" ht="60" customHeight="1" s="74">
+      <c r="A16" s="118" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="118" t="n"/>
+      <c r="C16" s="118" t="n"/>
+      <c r="D16" s="118" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="E16" s="118" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento referente ao mês 10/2023 - Líquido de salário</t>
+        </is>
+      </c>
+      <c r="F16" s="118" t="n"/>
+      <c r="G16" s="118" t="n"/>
+      <c r="H16" s="118" t="n"/>
+      <c r="I16" s="118" t="inlineStr">
+        <is>
+          <t>27/10/2023</t>
+        </is>
+      </c>
+      <c r="J16" s="138" t="n">
+        <v>201948.1</v>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1" s="74">
+      <c r="A17" s="120" t="n"/>
+      <c r="B17" s="120" t="n"/>
+      <c r="C17" s="120" t="n"/>
+      <c r="D17" s="120" t="n"/>
+      <c r="E17" s="120" t="n"/>
+      <c r="F17" s="120" t="n"/>
+      <c r="G17" s="120" t="n"/>
+      <c r="H17" s="120" t="n"/>
+      <c r="I17" s="120" t="n"/>
+      <c r="J17" s="139" t="n"/>
+    </row>
+    <row r="18">
+      <c r="J18" s="115" t="n"/>
+    </row>
+    <row r="19" ht="56.25" customHeight="1" s="74">
+      <c r="A19" s="122" t="inlineStr">
         <is>
           <t>Sub Total1</t>
         </is>
       </c>
-      <c r="B13" s="140" t="n"/>
-      <c r="C13" s="140" t="n"/>
-      <c r="D13" s="140" t="n"/>
-      <c r="E13" s="140" t="n"/>
-      <c r="F13" s="140" t="n"/>
-      <c r="G13" s="140" t="n"/>
-      <c r="H13" s="140" t="n"/>
-      <c r="I13" s="141" t="n"/>
-      <c r="J13" s="142">
-        <f>SUM(J10:J11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1" s="74">
-      <c r="A14" s="124" t="inlineStr">
+      <c r="B19" s="140" t="n"/>
+      <c r="C19" s="140" t="n"/>
+      <c r="D19" s="140" t="n"/>
+      <c r="E19" s="140" t="n"/>
+      <c r="F19" s="140" t="n"/>
+      <c r="G19" s="140" t="n"/>
+      <c r="H19" s="140" t="n"/>
+      <c r="I19" s="141" t="n"/>
+      <c r="J19" s="142">
+        <f>SUM(J10:J17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1" s="74">
+      <c r="A20" s="124" t="inlineStr">
         <is>
           <t>RESTITUIÇÕES CREDITADAS</t>
         </is>
       </c>
-      <c r="J14" s="115" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="125" t="inlineStr">
+      <c r="J20" s="115" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="125" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B15" s="125" t="inlineStr">
+      <c r="B21" s="125" t="inlineStr">
         <is>
           <t>Restituidor</t>
         </is>
       </c>
-      <c r="C15" s="125" t="inlineStr">
+      <c r="C21" s="125" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D15" s="143" t="inlineStr">
+      <c r="D21" s="143" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
-      <c r="E15" s="126" t="n"/>
-      <c r="F15" s="125" t="inlineStr">
+      <c r="E21" s="126" t="n"/>
+      <c r="F21" s="125" t="inlineStr">
         <is>
           <t>Cheque equivalente</t>
         </is>
       </c>
-      <c r="G15" s="125" t="inlineStr">
+      <c r="G21" s="125" t="inlineStr">
         <is>
           <t>Data do Cheque</t>
         </is>
       </c>
-      <c r="H15" s="125" t="inlineStr">
+      <c r="H21" s="125" t="inlineStr">
         <is>
           <t>Nº do Depósito</t>
         </is>
       </c>
-      <c r="I15" s="125" t="inlineStr">
+      <c r="I21" s="125" t="inlineStr">
         <is>
           <t>Data da Devolução</t>
         </is>
       </c>
-      <c r="J15" s="127" t="inlineStr">
+      <c r="J21" s="127" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="128" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="128" t="inlineStr">
         <is>
           <t>Sub Total 2</t>
         </is>
       </c>
-      <c r="B16" s="144" t="n"/>
-      <c r="C16" s="144" t="n"/>
-      <c r="D16" s="144" t="n"/>
-      <c r="E16" s="144" t="n"/>
-      <c r="F16" s="144" t="n"/>
-      <c r="G16" s="144" t="n"/>
-      <c r="H16" s="144" t="n"/>
-      <c r="I16" s="145" t="n"/>
-      <c r="J16" s="146" t="n"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" s="74">
-      <c r="A17" s="148" t="inlineStr">
+      <c r="B22" s="144" t="n"/>
+      <c r="C22" s="144" t="n"/>
+      <c r="D22" s="144" t="n"/>
+      <c r="E22" s="144" t="n"/>
+      <c r="F22" s="144" t="n"/>
+      <c r="G22" s="144" t="n"/>
+      <c r="H22" s="144" t="n"/>
+      <c r="I22" s="145" t="n"/>
+      <c r="J22" s="146" t="n"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" s="74">
+      <c r="A23" s="148" t="inlineStr">
         <is>
           <t>Total(1-2)</t>
         </is>
       </c>
-      <c r="B17" s="126" t="n"/>
-      <c r="C17" s="126" t="n"/>
-      <c r="D17" s="126" t="n"/>
-      <c r="E17" s="126" t="n"/>
-      <c r="F17" s="126" t="n"/>
-      <c r="G17" s="126" t="n"/>
-      <c r="H17" s="126" t="n"/>
-      <c r="I17" s="126" t="n"/>
-      <c r="J17" s="147">
-        <f>J11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="132">
+      <c r="B23" s="126" t="n"/>
+      <c r="C23" s="126" t="n"/>
+      <c r="D23" s="126" t="n"/>
+      <c r="E23" s="126" t="n"/>
+      <c r="F23" s="126" t="n"/>
+      <c r="G23" s="126" t="n"/>
+      <c r="H23" s="126" t="n"/>
+      <c r="I23" s="126" t="n"/>
+      <c r="J23" s="147">
+        <f>J17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="132">
         <f>'Receita x Despesa'!A42:J42</f>
         <v/>
       </c>
-      <c r="J18" s="115" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="133">
+      <c r="J24" s="115" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="133">
         <f>'Receita x Despesa'!A45</f>
         <v/>
       </c>
-      <c r="F19" s="134">
+      <c r="F25" s="134">
         <f>'Receita x Despesa'!H45</f>
         <v/>
       </c>
-      <c r="J19" s="113" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="132">
+      <c r="J25" s="113" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="132">
         <f>'Receita x Despesa'!A46</f>
         <v/>
       </c>
-      <c r="F20" s="135">
+      <c r="F26" s="135">
         <f>'Receita x Despesa'!H46</f>
         <v/>
       </c>
-      <c r="J20" s="113" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="132">
+      <c r="J26" s="113" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="132">
         <f>'Receita x Despesa'!A47</f>
         <v/>
       </c>
-      <c r="F21" s="135">
+      <c r="F27" s="135">
         <f>'Receita x Despesa'!H47</f>
         <v/>
       </c>
-      <c r="J21" s="113" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="136" t="n"/>
-      <c r="B22" s="136" t="n"/>
-      <c r="C22" s="136" t="n"/>
-      <c r="D22" s="136" t="n"/>
-      <c r="E22" s="136" t="n"/>
-      <c r="F22" s="136" t="n"/>
-      <c r="G22" s="136" t="n"/>
-      <c r="H22" s="136" t="n"/>
-      <c r="I22" s="136" t="n"/>
-      <c r="J22" s="137" t="n"/>
+      <c r="J27" s="113" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="136" t="n"/>
+      <c r="B28" s="136" t="n"/>
+      <c r="C28" s="136" t="n"/>
+      <c r="D28" s="136" t="n"/>
+      <c r="E28" s="136" t="n"/>
+      <c r="F28" s="136" t="n"/>
+      <c r="G28" s="136" t="n"/>
+      <c r="H28" s="136" t="n"/>
+      <c r="I28" s="136" t="n"/>
+      <c r="J28" s="137" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -9225,17 +9426,17 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9247,7 +9448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9369,193 +9570,257 @@
       </c>
     </row>
     <row r="10" ht="60" customHeight="1" s="74">
-      <c r="A10" s="118" t="n"/>
-      <c r="B10" s="118" t="n"/>
-      <c r="C10" s="118" t="n"/>
-      <c r="D10" s="118" t="n"/>
-      <c r="E10" s="118" t="n"/>
+      <c r="A10" s="118" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="118" t="inlineStr">
+        <is>
+          <t>HBL CARIMBOS E PLACAS IND. E COMERCIO LTDA</t>
+        </is>
+      </c>
+      <c r="C10" s="118" t="inlineStr">
+        <is>
+          <t>72649361000174</t>
+        </is>
+      </c>
+      <c r="D10" s="118" t="inlineStr">
+        <is>
+          <t>Ordem de Pagamento de AF/OS</t>
+        </is>
+      </c>
+      <c r="E10" s="118" t="inlineStr">
+        <is>
+          <t>HBL CARIMBOS E PLACAS IND. E COMERCIO LTDA, No. Doc: 790, referente a &lt;#Descrição - Se for passagem, inserir finalidade e período // Se for aquisição, descrever o item #&gt;</t>
+        </is>
+      </c>
       <c r="F10" s="118" t="n"/>
-      <c r="G10" s="118" t="n"/>
+      <c r="G10" s="118" t="inlineStr">
+        <is>
+          <t>07/11/2023</t>
+        </is>
+      </c>
       <c r="H10" s="118" t="n"/>
-      <c r="I10" s="118" t="n"/>
-      <c r="J10" s="151" t="n"/>
+      <c r="I10" s="118" t="inlineStr">
+        <is>
+          <t>14/11/2023</t>
+        </is>
+      </c>
+      <c r="J10" s="151" t="n">
+        <v>650.62</v>
+      </c>
     </row>
     <row r="11" ht="60" customHeight="1" s="74">
-      <c r="A11" s="120" t="n"/>
-      <c r="B11" s="120" t="n"/>
-      <c r="C11" s="120" t="n"/>
-      <c r="D11" s="120" t="n"/>
-      <c r="E11" s="120" t="n"/>
+      <c r="A11" s="120" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="120" t="inlineStr">
+        <is>
+          <t>Fundação de Empreendimentos Científicos e Tecnológicos</t>
+        </is>
+      </c>
+      <c r="C11" s="120" t="inlineStr">
+        <is>
+          <t>37116704000134</t>
+        </is>
+      </c>
+      <c r="D11" s="120" t="inlineStr">
+        <is>
+          <t>Pagamento de Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="E11" s="120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retirada de DOA mês de Outubro/23 da conta 6813-6 para conta FINATEC - ADMINISTRATIVO GERAL </t>
+        </is>
+      </c>
       <c r="F11" s="120" t="n"/>
       <c r="G11" s="120" t="n"/>
       <c r="H11" s="120" t="n"/>
-      <c r="I11" s="120" t="n"/>
-      <c r="J11" s="152" t="n"/>
-    </row>
-    <row r="12">
-      <c r="J12" s="115" t="n"/>
-    </row>
-    <row r="13" ht="56.25" customHeight="1" s="74">
-      <c r="A13" s="122" t="inlineStr">
+      <c r="I11" s="120" t="inlineStr">
+        <is>
+          <t>09/11/2023</t>
+        </is>
+      </c>
+      <c r="J11" s="152" t="n">
+        <v>16481.6</v>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1" s="74">
+      <c r="A12" s="118" t="n"/>
+      <c r="B12" s="118" t="n"/>
+      <c r="C12" s="118" t="n"/>
+      <c r="D12" s="118" t="n"/>
+      <c r="E12" s="118" t="n"/>
+      <c r="F12" s="118" t="n"/>
+      <c r="G12" s="118" t="n"/>
+      <c r="H12" s="118" t="n"/>
+      <c r="I12" s="118" t="n"/>
+      <c r="J12" s="151" t="n"/>
+    </row>
+    <row r="13">
+      <c r="J13" s="115" t="n"/>
+    </row>
+    <row r="14" ht="56.25" customHeight="1" s="74">
+      <c r="A14" s="122" t="inlineStr">
         <is>
           <t>Sub Total1</t>
         </is>
       </c>
-      <c r="B13" s="140" t="n"/>
-      <c r="C13" s="140" t="n"/>
-      <c r="D13" s="140" t="n"/>
-      <c r="E13" s="140" t="n"/>
-      <c r="F13" s="140" t="n"/>
-      <c r="G13" s="140" t="n"/>
-      <c r="H13" s="140" t="n"/>
-      <c r="I13" s="141" t="n"/>
-      <c r="J13" s="142">
-        <f>SUM(J10:J11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1" s="74">
-      <c r="A14" s="124" t="inlineStr">
+      <c r="B14" s="140" t="n"/>
+      <c r="C14" s="140" t="n"/>
+      <c r="D14" s="140" t="n"/>
+      <c r="E14" s="140" t="n"/>
+      <c r="F14" s="140" t="n"/>
+      <c r="G14" s="140" t="n"/>
+      <c r="H14" s="140" t="n"/>
+      <c r="I14" s="141" t="n"/>
+      <c r="J14" s="142">
+        <f>SUM(J10:J12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" s="74">
+      <c r="A15" s="124" t="inlineStr">
         <is>
           <t>RESTITUIÇÕES CREDITADAS</t>
         </is>
       </c>
-      <c r="J14" s="115" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="153" t="inlineStr">
+      <c r="J15" s="115" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="153" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B15" s="153" t="inlineStr">
+      <c r="B16" s="153" t="inlineStr">
         <is>
           <t>Restituidor</t>
         </is>
       </c>
-      <c r="C15" s="153" t="inlineStr">
+      <c r="C16" s="153" t="inlineStr">
         <is>
           <t>CNPJ/CPF</t>
         </is>
       </c>
-      <c r="D15" s="155" t="inlineStr">
+      <c r="D16" s="155" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
-      <c r="E15" s="126" t="n"/>
-      <c r="F15" s="153" t="inlineStr">
+      <c r="E16" s="126" t="n"/>
+      <c r="F16" s="153" t="inlineStr">
         <is>
           <t>Cheque equivalente</t>
         </is>
       </c>
-      <c r="G15" s="153" t="inlineStr">
+      <c r="G16" s="153" t="inlineStr">
         <is>
           <t>Data do Cheque</t>
         </is>
       </c>
-      <c r="H15" s="153" t="inlineStr">
+      <c r="H16" s="153" t="inlineStr">
         <is>
           <t>Nº do Depósito</t>
         </is>
       </c>
-      <c r="I15" s="153" t="inlineStr">
+      <c r="I16" s="153" t="inlineStr">
         <is>
           <t>Data da Devolução</t>
         </is>
       </c>
-      <c r="J15" s="154" t="inlineStr">
+      <c r="J16" s="154" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="128" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="128" t="inlineStr">
         <is>
           <t>Sub Total 2</t>
         </is>
       </c>
-      <c r="B16" s="144" t="n"/>
-      <c r="C16" s="144" t="n"/>
-      <c r="D16" s="144" t="n"/>
-      <c r="E16" s="144" t="n"/>
-      <c r="F16" s="144" t="n"/>
-      <c r="G16" s="144" t="n"/>
-      <c r="H16" s="144" t="n"/>
-      <c r="I16" s="145" t="n"/>
-      <c r="J16" s="146" t="n"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" s="74">
-      <c r="A17" s="148" t="inlineStr">
+      <c r="B17" s="144" t="n"/>
+      <c r="C17" s="144" t="n"/>
+      <c r="D17" s="144" t="n"/>
+      <c r="E17" s="144" t="n"/>
+      <c r="F17" s="144" t="n"/>
+      <c r="G17" s="144" t="n"/>
+      <c r="H17" s="144" t="n"/>
+      <c r="I17" s="145" t="n"/>
+      <c r="J17" s="146" t="n"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" s="74">
+      <c r="A18" s="148" t="inlineStr">
         <is>
           <t>Total(1-2)</t>
         </is>
       </c>
-      <c r="B17" s="126" t="n"/>
-      <c r="C17" s="126" t="n"/>
-      <c r="D17" s="126" t="n"/>
-      <c r="E17" s="126" t="n"/>
-      <c r="F17" s="126" t="n"/>
-      <c r="G17" s="126" t="n"/>
-      <c r="H17" s="126" t="n"/>
-      <c r="I17" s="126" t="n"/>
-      <c r="J17" s="147">
-        <f>J11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="132">
+      <c r="B18" s="126" t="n"/>
+      <c r="C18" s="126" t="n"/>
+      <c r="D18" s="126" t="n"/>
+      <c r="E18" s="126" t="n"/>
+      <c r="F18" s="126" t="n"/>
+      <c r="G18" s="126" t="n"/>
+      <c r="H18" s="126" t="n"/>
+      <c r="I18" s="126" t="n"/>
+      <c r="J18" s="147">
+        <f>J12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="132">
         <f>'Receita x Despesa'!A42:J42</f>
         <v/>
       </c>
-      <c r="J18" s="115" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="133">
+      <c r="J19" s="115" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="133">
         <f>'Receita x Despesa'!A45</f>
         <v/>
       </c>
-      <c r="F19" s="134">
+      <c r="F20" s="134">
         <f>'Receita x Despesa'!H45</f>
-        <v/>
-      </c>
-      <c r="J19" s="113" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="132">
-        <f>'Receita x Despesa'!A46</f>
-        <v/>
-      </c>
-      <c r="F20" s="135">
-        <f>'Receita x Despesa'!H46</f>
         <v/>
       </c>
       <c r="J20" s="113" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="132">
+        <f>'Receita x Despesa'!A46</f>
+        <v/>
+      </c>
+      <c r="F21" s="135">
+        <f>'Receita x Despesa'!H46</f>
+        <v/>
+      </c>
+      <c r="J21" s="113" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="132">
         <f>'Receita x Despesa'!A47</f>
         <v/>
       </c>
-      <c r="F21" s="135">
+      <c r="F22" s="135">
         <f>'Receita x Despesa'!H47</f>
         <v/>
       </c>
-      <c r="J21" s="113" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="136" t="n"/>
-      <c r="B22" s="136" t="n"/>
-      <c r="C22" s="136" t="n"/>
-      <c r="D22" s="136" t="n"/>
-      <c r="E22" s="136" t="n"/>
-      <c r="F22" s="136" t="n"/>
-      <c r="G22" s="136" t="n"/>
-      <c r="H22" s="136" t="n"/>
-      <c r="I22" s="136" t="n"/>
-      <c r="J22" s="137" t="n"/>
+      <c r="J22" s="113" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="136" t="n"/>
+      <c r="B23" s="136" t="n"/>
+      <c r="C23" s="136" t="n"/>
+      <c r="D23" s="136" t="n"/>
+      <c r="E23" s="136" t="n"/>
+      <c r="F23" s="136" t="n"/>
+      <c r="G23" s="136" t="n"/>
+      <c r="H23" s="136" t="n"/>
+      <c r="I23" s="136" t="n"/>
+      <c r="J23" s="137" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -9565,17 +9830,17 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A19:I19"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="F20:J20"/>
     <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10603,7 +10868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10631,35 +10896,35 @@
       <c r="F2" s="113" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="197">
+      <c r="A3" s="198">
         <f>'Receita x Despesa'!A3:J3</f>
         <v/>
       </c>
       <c r="F3" s="113" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="197">
+      <c r="A4" s="198">
         <f>'Receita x Despesa'!A4:J4</f>
         <v/>
       </c>
       <c r="F4" s="113" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="197">
+      <c r="A5" s="198">
         <f>'Receita x Despesa'!A5:J5</f>
         <v/>
       </c>
       <c r="F5" s="113" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="197">
+      <c r="A6" s="198">
         <f>'Receita x Despesa'!A6:J6</f>
         <v/>
       </c>
       <c r="F6" s="113" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="197">
+      <c r="A7" s="198">
         <f>'Receita x Despesa'!A7:J7</f>
         <v/>
       </c>
@@ -10669,7 +10934,7 @@
       <c r="F8" s="115" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="198" t="inlineStr">
+      <c r="A9" s="199" t="inlineStr">
         <is>
           <t>1.Saldo conforme extratos bancários na data final do período</t>
         </is>
@@ -10696,7 +10961,7 @@
       <c r="F12" s="115" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="198" t="inlineStr">
+      <c r="A13" s="199" t="inlineStr">
         <is>
           <t>2. Restituições não creditadas pelo banco até a data final do período</t>
         </is>
@@ -10722,7 +10987,7 @@
           <t>Documento</t>
         </is>
       </c>
-      <c r="D15" s="199" t="inlineStr">
+      <c r="D15" s="200" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
@@ -10730,34 +10995,69 @@
       <c r="F15" s="113" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="183" t="n"/>
-      <c r="B16" s="184" t="n"/>
+      <c r="A16" s="183" t="inlineStr">
+        <is>
+          <t>10-out-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="184" t="n">
+        <v>4.93</v>
+      </c>
       <c r="C16" s="183" t="n"/>
-      <c r="D16" s="200" t="n"/>
+      <c r="D16" s="201" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras. Competência  10/2023</t>
+        </is>
+      </c>
       <c r="F16" s="113" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="186" t="inlineStr">
         <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B17" s="187">
-        <f>SUM(B16:B16)</f>
-        <v/>
-      </c>
-      <c r="C17" s="188" t="n"/>
-      <c r="D17" s="188" t="n"/>
-      <c r="E17" s="188" t="n"/>
-      <c r="F17" s="189" t="n"/>
+          <t>11-out-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="187" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="C17" s="186" t="n"/>
+      <c r="D17" s="202" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras. Competência  10/2023</t>
+        </is>
+      </c>
+      <c r="F17" s="113" t="n"/>
     </row>
     <row r="18">
-      <c r="F18" s="115" t="n"/>
+      <c r="A18" s="183" t="inlineStr">
+        <is>
+          <t>17-out-2023</t>
+        </is>
+      </c>
+      <c r="B18" s="184" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="C18" s="183" t="n"/>
+      <c r="D18" s="201" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras. Competência  10/2023</t>
+        </is>
+      </c>
+      <c r="F18" s="113" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="198" t="inlineStr">
-        <is>
-          <t>3. Restituições creditadas pelo banco até a data final do período</t>
+      <c r="A19" s="186" t="inlineStr">
+        <is>
+          <t>19-out-2023</t>
+        </is>
+      </c>
+      <c r="B19" s="187" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="C19" s="186" t="n"/>
+      <c r="D19" s="202" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras. Competência  10/2023</t>
         </is>
       </c>
       <c r="F19" s="113" t="n"/>
@@ -10765,120 +11065,210 @@
     <row r="20">
       <c r="A20" s="183" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B20" s="183" t="inlineStr">
-        <is>
-          <t>Valor(R$)</t>
-        </is>
-      </c>
-      <c r="C20" s="183" t="inlineStr">
-        <is>
-          <t>Documento</t>
-        </is>
-      </c>
-      <c r="D20" s="200" t="inlineStr">
-        <is>
-          <t>Descrição</t>
+          <t>24-out-2023</t>
+        </is>
+      </c>
+      <c r="B20" s="184" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="C20" s="183" t="n"/>
+      <c r="D20" s="201" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras. Competência  10/2023</t>
         </is>
       </c>
       <c r="F20" s="113" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="188" t="n"/>
-      <c r="B21" s="190" t="n"/>
-      <c r="C21" s="188" t="n"/>
-      <c r="D21" s="201" t="n"/>
+      <c r="A21" s="186" t="inlineStr">
+        <is>
+          <t>25-out-2023</t>
+        </is>
+      </c>
+      <c r="B21" s="187" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="C21" s="186" t="n"/>
+      <c r="D21" s="202" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras. Competência  10/2023</t>
+        </is>
+      </c>
       <c r="F21" s="113" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="191" t="n"/>
-      <c r="F22" s="115" t="n"/>
+      <c r="A22" s="183" t="inlineStr">
+        <is>
+          <t>27-out-2023</t>
+        </is>
+      </c>
+      <c r="B22" s="184" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="C22" s="183" t="n"/>
+      <c r="D22" s="201" t="inlineStr">
+        <is>
+          <t>Despesas Financeiras. Competência  10/2023</t>
+        </is>
+      </c>
+      <c r="F22" s="113" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="192" t="inlineStr">
+      <c r="A23" s="189" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B23" s="192">
-        <f>SUM(B21:B22)</f>
-        <v/>
-      </c>
-      <c r="F23" s="115" t="n"/>
+      <c r="B23" s="190">
+        <f>SUM(B16:B22)</f>
+        <v/>
+      </c>
+      <c r="C23" s="186" t="n"/>
+      <c r="D23" s="186" t="n"/>
+      <c r="E23" s="186" t="n"/>
+      <c r="F23" s="188" t="n"/>
     </row>
     <row r="24">
       <c r="F24" s="115" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="193" t="inlineStr">
+      <c r="A25" s="199" t="inlineStr">
+        <is>
+          <t>3. Restituições creditadas pelo banco até a data final do período</t>
+        </is>
+      </c>
+      <c r="F25" s="113" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="183" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B26" s="183" t="inlineStr">
+        <is>
+          <t>Valor(R$)</t>
+        </is>
+      </c>
+      <c r="C26" s="183" t="inlineStr">
+        <is>
+          <t>Documento</t>
+        </is>
+      </c>
+      <c r="D26" s="183" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="E26" s="183" t="n"/>
+      <c r="F26" s="185" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="189" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B27" s="189">
+        <f>SUM(B27:B26)</f>
+        <v/>
+      </c>
+      <c r="C27" s="186" t="n"/>
+      <c r="D27" s="186" t="n"/>
+      <c r="E27" s="186" t="n"/>
+      <c r="F27" s="188" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="183" t="n"/>
+      <c r="B28" s="183" t="n"/>
+      <c r="C28" s="183" t="n"/>
+      <c r="D28" s="183" t="n"/>
+      <c r="E28" s="183" t="n"/>
+      <c r="F28" s="185" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="191" t="inlineStr">
         <is>
           <t>Saldo disponível p/ período seguinte (1 + 2 - 3)</t>
         </is>
       </c>
-      <c r="E25" s="203">
-        <f>F10+F11+B17 -B23</f>
-        <v/>
-      </c>
-      <c r="F25" s="113" t="n"/>
-    </row>
-    <row r="26">
-      <c r="F26" s="115" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="135">
+      <c r="E29" s="205">
+        <f>F10+F11+B23 -B27</f>
+        <v/>
+      </c>
+      <c r="F29" s="113" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="183" t="n"/>
+      <c r="B30" s="183" t="n"/>
+      <c r="C30" s="183" t="n"/>
+      <c r="D30" s="183" t="n"/>
+      <c r="E30" s="183" t="n"/>
+      <c r="F30" s="185" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="193">
         <f>'Receita x Despesa'!A42:F42</f>
         <v/>
       </c>
-      <c r="F27" s="113" t="n"/>
-    </row>
-    <row r="28">
-      <c r="F28" s="115" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="133">
+      <c r="B31" s="194" t="n"/>
+      <c r="C31" s="194" t="n"/>
+      <c r="D31" s="194" t="n"/>
+      <c r="E31" s="194" t="n"/>
+      <c r="F31" s="204" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="183" t="n"/>
+      <c r="B32" s="183" t="n"/>
+      <c r="C32" s="183" t="n"/>
+      <c r="D32" s="183" t="n"/>
+      <c r="E32" s="183" t="n"/>
+      <c r="F32" s="185" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="195">
         <f>'Receita x Despesa'!A45</f>
         <v/>
       </c>
-      <c r="D29" s="204">
+      <c r="C33" s="186" t="n"/>
+      <c r="D33" s="206">
         <f>'Receita x Despesa'!H45</f>
         <v/>
       </c>
-      <c r="F29" s="113" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="132">
+      <c r="F33" s="113" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="132">
         <f>'Receita x Despesa'!A46</f>
         <v/>
       </c>
-      <c r="D30" s="205">
+      <c r="D34" s="207">
         <f>'Receita x Despesa'!H46</f>
         <v/>
       </c>
-      <c r="F30" s="113" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="132">
+      <c r="F34" s="113" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="132">
         <f>'Receita x Despesa'!A47</f>
         <v/>
       </c>
-      <c r="D31" s="205">
+      <c r="D35" s="207">
         <f>'Receita x Despesa'!H47</f>
         <v/>
       </c>
-      <c r="F31" s="113" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="136" t="n"/>
-      <c r="B32" s="136" t="n"/>
-      <c r="C32" s="136" t="n"/>
-      <c r="D32" s="136" t="n"/>
-      <c r="E32" s="136" t="n"/>
-      <c r="F32" s="137" t="n"/>
+      <c r="F35" s="113" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="136" t="n"/>
+      <c r="B36" s="136" t="n"/>
+      <c r="C36" s="136" t="n"/>
+      <c r="D36" s="136" t="n"/>
+      <c r="E36" s="136" t="n"/>
+      <c r="F36" s="137" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -10891,18 +11281,22 @@
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10944,35 +11338,35 @@
       <c r="H2" s="113" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="197">
+      <c r="A3" s="198">
         <f>'Receita x Despesa'!A3:J3</f>
         <v/>
       </c>
       <c r="H3" s="113" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="197">
+      <c r="A4" s="198">
         <f>'Receita x Despesa'!A4:J4</f>
         <v/>
       </c>
       <c r="H4" s="113" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="197">
+      <c r="A5" s="198">
         <f>'Receita x Despesa'!A5:J5</f>
         <v/>
       </c>
       <c r="H5" s="113" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="197">
+      <c r="A6" s="198">
         <f>'Receita x Despesa'!A6:J6</f>
         <v/>
       </c>
       <c r="H6" s="113" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="197">
+      <c r="A7" s="198">
         <f>'Receita x Despesa'!A7:J7</f>
         <v/>
       </c>
@@ -10993,42 +11387,42 @@
       <c r="H10" s="115" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="186" t="inlineStr">
+      <c r="A11" s="189" t="inlineStr">
         <is>
           <t>Período</t>
         </is>
       </c>
-      <c r="B11" s="186" t="inlineStr">
+      <c r="B11" s="189" t="inlineStr">
         <is>
           <t>Saldo Anterior</t>
         </is>
       </c>
-      <c r="C11" s="186" t="inlineStr">
+      <c r="C11" s="189" t="inlineStr">
         <is>
           <t>Valor Aplicado no período</t>
         </is>
       </c>
-      <c r="D11" s="186" t="inlineStr">
+      <c r="D11" s="189" t="inlineStr">
         <is>
           <t>Valor Resgatado no Período</t>
         </is>
       </c>
-      <c r="E11" s="186" t="inlineStr">
+      <c r="E11" s="189" t="inlineStr">
         <is>
           <t>Rendimento Bruto</t>
         </is>
       </c>
-      <c r="F11" s="186" t="inlineStr">
+      <c r="F11" s="189" t="inlineStr">
         <is>
           <t>Imposto de Renda / IOF</t>
         </is>
       </c>
-      <c r="G11" s="186" t="inlineStr">
+      <c r="G11" s="189" t="inlineStr">
         <is>
           <t>Rendimento Líquido</t>
         </is>
       </c>
-      <c r="H11" s="214" t="inlineStr">
+      <c r="H11" s="215" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
@@ -11041,63 +11435,69 @@
       <c r="H13" s="113" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="207" t="n"/>
+      <c r="A14" s="209" t="inlineStr">
+        <is>
+          <t>out-2023</t>
+        </is>
+      </c>
       <c r="B14" s="183" t="n"/>
       <c r="C14" s="183" t="n"/>
       <c r="D14" s="183" t="n"/>
       <c r="E14" s="183" t="n"/>
-      <c r="F14" s="208" t="n"/>
-      <c r="G14" s="209" t="n"/>
-      <c r="H14" s="185" t="n"/>
+      <c r="F14" s="210" t="n"/>
+      <c r="G14" s="211" t="n"/>
+      <c r="H14" s="185" t="n">
+        <v>15632.18</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="186" t="n"/>
-      <c r="B15" s="210" t="n"/>
-      <c r="C15" s="210" t="n"/>
-      <c r="D15" s="210" t="n"/>
-      <c r="E15" s="210" t="n"/>
-      <c r="F15" s="211" t="n"/>
-      <c r="G15" s="212" t="n"/>
-      <c r="H15" s="213" t="n"/>
+      <c r="A15" s="189" t="n"/>
+      <c r="B15" s="191" t="n"/>
+      <c r="C15" s="191" t="n"/>
+      <c r="D15" s="191" t="n"/>
+      <c r="E15" s="191" t="n"/>
+      <c r="F15" s="212" t="n"/>
+      <c r="G15" s="213" t="n"/>
+      <c r="H15" s="214" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="207" t="n"/>
+      <c r="A16" s="209" t="n"/>
       <c r="B16" s="183" t="n"/>
       <c r="C16" s="183" t="n"/>
       <c r="D16" s="183" t="n"/>
       <c r="E16" s="183" t="n"/>
-      <c r="F16" s="208" t="n"/>
-      <c r="G16" s="209" t="n"/>
+      <c r="F16" s="210" t="n"/>
+      <c r="G16" s="211" t="n"/>
       <c r="H16" s="185" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="186" t="inlineStr">
+      <c r="A17" s="189" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B17" s="210" t="n"/>
-      <c r="C17" s="186">
+      <c r="B17" s="191" t="n"/>
+      <c r="C17" s="189">
         <f>SUM(C14:C16)</f>
         <v/>
       </c>
-      <c r="D17" s="186">
+      <c r="D17" s="189">
         <f>SUM(D14:D16)</f>
         <v/>
       </c>
-      <c r="E17" s="186">
+      <c r="E17" s="189">
         <f>SUM(E14:E16)</f>
         <v/>
       </c>
-      <c r="F17" s="186">
+      <c r="F17" s="189">
         <f>SUM(F14:F16)</f>
         <v/>
       </c>
-      <c r="G17" s="186">
+      <c r="G17" s="189">
         <f>SUM(G14:G16)</f>
         <v/>
       </c>
-      <c r="H17" s="206">
+      <c r="H17" s="208">
         <f>SUM(H14:H16)</f>
         <v/>
       </c>
@@ -11158,11 +11558,11 @@
       <c r="A26" s="136" t="n"/>
       <c r="B26" s="136" t="n"/>
       <c r="C26" s="136" t="n"/>
-      <c r="D26" s="137" t="n"/>
+      <c r="D26" s="136" t="n"/>
       <c r="E26" s="136" t="n"/>
       <c r="F26" s="136" t="n"/>
       <c r="G26" s="136" t="n"/>
-      <c r="H26" s="136" t="n"/>
+      <c r="H26" s="137" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="22">
